--- a/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2020/output/LCA_Construction_final.xlsx
+++ b/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2020/output/LCA_Construction_final.xlsx
@@ -637,52 +637,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.04705871905982</v>
+        <v>45.04694806613423</v>
       </c>
       <c r="C4" t="n">
-        <v>5920.895616</v>
+        <v>5920.881072</v>
       </c>
       <c r="D4" t="n">
-        <v>151749.8564228977</v>
+        <v>151749.4836668056</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7862920266164717</v>
+        <v>0.7862900951804227</v>
       </c>
       <c r="F4" t="n">
-        <v>12.62481082907934</v>
+        <v>12.62477981768164</v>
       </c>
       <c r="G4" t="n">
-        <v>154.5662260035979</v>
+        <v>154.5658463294174</v>
       </c>
       <c r="H4" t="n">
-        <v>5.984388910830049e-06</v>
+        <v>5.984374210866063e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>7.145610263672956e-05</v>
+        <v>7.145592711302097e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>646.4120508754759</v>
+        <v>646.4104630385206</v>
       </c>
       <c r="K4" t="n">
-        <v>23604.53949164423</v>
+        <v>23604.48150980422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09416462215846819</v>
+        <v>0.09416439085388972</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003315904943555273</v>
+        <v>0.0003315896798415647</v>
       </c>
       <c r="N4" t="n">
-        <v>26.13092769781387</v>
+        <v>26.13086351019141</v>
       </c>
       <c r="O4" t="n">
-        <v>3200.688254517289</v>
+        <v>3200.680392394228</v>
       </c>
       <c r="P4" t="n">
-        <v>107621.5121443639</v>
+        <v>107621.2477844809</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0005998605214390001</v>
+        <v>0.0005998590479505298</v>
       </c>
     </row>
     <row r="5">
@@ -692,52 +692,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.307470254867939e-07</v>
+        <v>1.258620139018876e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1e-05</v>
+        <v>5.999999999999999e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002097839989686341</v>
+        <v>0.001144276358010731</v>
       </c>
       <c r="E5" t="n">
-        <v>1.765175836558566e-08</v>
+        <v>9.628231835773999e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220526791989974e-08</v>
+        <v>1.211196431994531e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.615899213066997e-07</v>
+        <v>1.426854116218362e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>1.225647278715575e-13</v>
+        <v>6.685348792994045e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.635696540370202e-12</v>
+        <v>1.437652658383747e-12</v>
       </c>
       <c r="J5" t="n">
-        <v>1.656715340150515e-06</v>
+        <v>9.036629128093718e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004311592743203602</v>
+        <v>0.0002351777859929238</v>
       </c>
       <c r="L5" t="n">
-        <v>5.254129810928955e-09</v>
+        <v>2.865888987779431e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>1.839638491939016e-12</v>
+        <v>1.003439177421281e-12</v>
       </c>
       <c r="N5" t="n">
-        <v>7.382919905533106e-08</v>
+        <v>4.027047221199876e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>9.020868218033941e-06</v>
+        <v>4.920473573473058e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0001412965656907175</v>
+        <v>7.707085401311865e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.042861902861422e-12</v>
+        <v>5.688337651971394e-13</v>
       </c>
     </row>
     <row r="6">
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.577394863436326e-08</v>
+        <v>1.341523073788623e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>8e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002026928889889952</v>
+        <v>7.600983337087322e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>1.271096966318881e-09</v>
+        <v>4.766613623695806e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>1.043862038050073e-08</v>
+        <v>3.914482642687773e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>1.023515632501124e-07</v>
+        <v>3.838183621879216e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>2.038800940234473e-14</v>
+        <v>7.645503525879276e-15</v>
       </c>
       <c r="I6" t="n">
-        <v>1.787602457309402e-13</v>
+        <v>6.703509214910258e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>4.128833684111461e-07</v>
+        <v>1.548312631541798e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001080907929933121</v>
+        <v>4.053404737249203e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.614768123189253e-10</v>
+        <v>6.055380461959701e-11</v>
       </c>
       <c r="M6" t="n">
-        <v>6.854471433798963e-13</v>
+        <v>2.570426787674612e-13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.909639248785893e-08</v>
+        <v>1.09111471829471e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>3.789068055526203e-06</v>
+        <v>1.420900520822326e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>9.36601807751651e-05</v>
+        <v>3.512256779068692e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.687316353818844e-12</v>
+        <v>6.327436326820664e-13</v>
       </c>
     </row>
     <row r="7">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.21741354135376e-07</v>
+        <v>4.263369285499722e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>3.5e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004148503092836602</v>
+        <v>0.002844687835087956</v>
       </c>
       <c r="E7" t="n">
-        <v>3.368107917416743e-08</v>
+        <v>2.309559714800053e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>6.370118048336932e-08</v>
+        <v>4.36808094743104e-08</v>
       </c>
       <c r="G7" t="n">
-        <v>6.166013888786422e-07</v>
+        <v>4.228123809453547e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>4.346274091743472e-13</v>
+        <v>2.980302234338381e-13</v>
       </c>
       <c r="I7" t="n">
-        <v>5.749505194533756e-12</v>
+        <v>3.942517847680291e-12</v>
       </c>
       <c r="J7" t="n">
-        <v>9.725667244612817e-06</v>
+        <v>6.669028967734504e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004536497431960965</v>
+        <v>0.0003110741096201806</v>
       </c>
       <c r="L7" t="n">
-        <v>1.277317463281116e-08</v>
+        <v>8.758748319641943e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>4.62965332223976e-12</v>
+        <v>3.174619420964408e-12</v>
       </c>
       <c r="N7" t="n">
-        <v>1.744183281900543e-07</v>
+        <v>1.19601139330323e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001552276077361584</v>
+        <v>0.0001064417881619372</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0005769060518283361</v>
+        <v>0.0003955927212537163</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.300256677214708e-12</v>
+        <v>3.634461721518658e-12</v>
       </c>
     </row>
     <row r="8">
@@ -912,52 +912,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.873560648754753e-07</v>
+        <v>4.195400463396253e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>2.8e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005339956337383409</v>
+        <v>0.003814254526702436</v>
       </c>
       <c r="E9" t="n">
-        <v>4.493174856694536e-08</v>
+        <v>3.209410611924668e-08</v>
       </c>
       <c r="F9" t="n">
-        <v>5.652250015974488e-08</v>
+        <v>4.037321439981778e-08</v>
       </c>
       <c r="G9" t="n">
-        <v>6.658652542352341e-07</v>
+        <v>4.75618038739453e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>3.119829436730488e-13</v>
+        <v>2.228449597664634e-13</v>
       </c>
       <c r="I9" t="n">
-        <v>6.709045739123393e-12</v>
+        <v>4.792175527945282e-12</v>
       </c>
       <c r="J9" t="n">
-        <v>4.217093593110398e-06</v>
+        <v>3.012209709364571e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001097496334633643</v>
+        <v>0.0007839259533097454</v>
       </c>
       <c r="L9" t="n">
-        <v>1.337414860963733e-08</v>
+        <v>9.552963292598096e-09</v>
       </c>
       <c r="M9" t="n">
-        <v>4.682716161299309e-12</v>
+        <v>3.344797258070936e-12</v>
       </c>
       <c r="N9" t="n">
-        <v>1.879288703226608e-07</v>
+        <v>1.342349073733291e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>2.296221000954095e-05</v>
+        <v>1.640157857824354e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0003596639853945536</v>
+        <v>0.0002569028467103955</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.654557570919983e-12</v>
+        <v>1.896112550657131e-12</v>
       </c>
     </row>
     <row r="10">
@@ -967,52 +967,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.264508637130829e-07</v>
+        <v>1.423405429053664e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>3.5e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001582460648118434</v>
+        <v>0.0009946895502458727</v>
       </c>
       <c r="E10" t="n">
-        <v>1.276840934991635e-08</v>
+        <v>8.025857305661703e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>5.525176549285724e-08</v>
+        <v>3.472968116693883e-08</v>
       </c>
       <c r="G10" t="n">
-        <v>5.396531590603687e-07</v>
+        <v>3.392105571236603e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>2.61473302691238e-13</v>
+        <v>1.64354647405921e-13</v>
       </c>
       <c r="I10" t="n">
-        <v>3.701772468431491e-12</v>
+        <v>2.326828408728366e-12</v>
       </c>
       <c r="J10" t="n">
-        <v>1.748972717192986e-06</v>
+        <v>1.099354279378448e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00123883598355644</v>
+        <v>0.0007786969039497621</v>
       </c>
       <c r="L10" t="n">
-        <v>1.936254584426726e-09</v>
+        <v>1.217074310211084e-09</v>
       </c>
       <c r="M10" t="n">
-        <v>5.946254449220818e-12</v>
+        <v>3.737645653795943e-12</v>
       </c>
       <c r="N10" t="n">
-        <v>1.758585287623802e-07</v>
+        <v>1.10539646650639e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57842575738736e-05</v>
+        <v>9.921533332149122e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0003576368796461473</v>
+        <v>0.0002248003243490069</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.38182001510626e-12</v>
+        <v>2.125715438066792e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1022,52 +1022,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.713596884065507e-08</v>
+        <v>4.795426345761077e-08</v>
       </c>
       <c r="C11" t="n">
-        <v>7.000000000000001e-06</v>
+        <v>5.000000000000001e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0003512639521933168</v>
+        <v>0.0002509028229952263</v>
       </c>
       <c r="E11" t="n">
-        <v>2.853030209032493e-09</v>
+        <v>2.037878720737495e-09</v>
       </c>
       <c r="F11" t="n">
-        <v>1.633506324440924e-08</v>
+        <v>1.166790231743517e-08</v>
       </c>
       <c r="G11" t="n">
-        <v>1.669976973719003e-07</v>
+        <v>1.192840695513574e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>2.491125944233926e-14</v>
+        <v>1.779375674452804e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>4.080273328549889e-13</v>
+        <v>2.914480948964206e-13</v>
       </c>
       <c r="J11" t="n">
-        <v>3.813695391361729e-07</v>
+        <v>2.724068136686949e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0008917209979087204</v>
+        <v>0.0006369435699348004</v>
       </c>
       <c r="L11" t="n">
-        <v>4.607034377926156e-10</v>
+        <v>3.290738841375826e-10</v>
       </c>
       <c r="M11" t="n">
-        <v>1.294613409224351e-12</v>
+        <v>9.247238637316797e-13</v>
       </c>
       <c r="N11" t="n">
-        <v>4.895880215656469e-08</v>
+        <v>3.497057296897478e-08</v>
       </c>
       <c r="O11" t="n">
-        <v>2.776160428846742e-06</v>
+        <v>1.98297173489053e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>7.198970805108939e-05</v>
+        <v>5.142122003649243e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.418425554330654e-13</v>
+        <v>4.584589681664753e-13</v>
       </c>
     </row>
     <row r="12">
@@ -1077,52 +1077,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07625170589019131</v>
+        <v>0.1042147330129903</v>
       </c>
       <c r="C12" t="n">
-        <v>9.229007999999999</v>
+        <v>12.61347</v>
       </c>
       <c r="D12" t="n">
-        <v>456.8260680012647</v>
+        <v>624.3533328773703</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004178354869275049</v>
+        <v>0.005710641251254173</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01289784488384445</v>
+        <v>0.01762774281992447</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1101739945645929</v>
+        <v>0.1505770040746151</v>
       </c>
       <c r="H12" t="n">
-        <v>4.693848642890069e-08</v>
+        <v>6.415176911931879e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>5.02315717884726e-07</v>
+        <v>6.865249480840689e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4269090245603616</v>
+        <v>0.5834651106620977</v>
       </c>
       <c r="K12" t="n">
-        <v>106.3692671129905</v>
+        <v>145.3770068951822</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000405786913733729</v>
+        <v>0.0005545970989268813</v>
       </c>
       <c r="M12" t="n">
-        <v>1.111823162452983e-06</v>
+        <v>1.519550975024166e-06</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1915869147237583</v>
+        <v>0.2618456719574502</v>
       </c>
       <c r="O12" t="n">
-        <v>4.883343507681827</v>
+        <v>6.674163337364049</v>
       </c>
       <c r="P12" t="n">
-        <v>96.8622214104161</v>
+        <v>132.383537200709</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.617845563223042e-07</v>
+        <v>7.678022001535481e-07</v>
       </c>
     </row>
     <row r="13">
@@ -1132,52 +1132,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1010778484559591</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>12.233802</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>605.5601711869803</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005538749793742389</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01709714419314254</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1460446057747816</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.222078788433798e-08</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.658604081922562e-07</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5659026927362726</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>141.001129562943</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005379036139972489</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.473812183114765e-06</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.253964064233268</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>6.473269670040915</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>128.3987659361864</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.446911985237114e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1242,52 +1242,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04856009804248039</v>
+        <v>0.04856012687139592</v>
       </c>
       <c r="C15" t="n">
-        <v>5.053269999999993</v>
+        <v>5.053272999999991</v>
       </c>
       <c r="D15" t="n">
-        <v>505.1341386527057</v>
+        <v>505.1344385382084</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003397420013233942</v>
+        <v>0.003397422030197221</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008225002916203924</v>
+        <v>0.008225007799182416</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07409983744949987</v>
+        <v>0.07409988144071984</v>
       </c>
       <c r="H15" t="n">
-        <v>2.328780910374051e-08</v>
+        <v>2.328782292913026e-08</v>
       </c>
       <c r="I15" t="n">
-        <v>3.76019907616178e-07</v>
+        <v>3.760201308497914e-07</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4190735629571019</v>
+        <v>0.4190738117505936</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6497522875767</v>
+        <v>121.6498245079918</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009814862449113889</v>
+        <v>0.0009814868275952219</v>
       </c>
       <c r="M15" t="n">
-        <v>4.518371328651864e-07</v>
+        <v>4.5183740110959e-07</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02424467545452662</v>
+        <v>0.02424468984798399</v>
       </c>
       <c r="O15" t="n">
-        <v>6.427782310166042</v>
+        <v>6.427786126179616</v>
       </c>
       <c r="P15" t="n">
-        <v>59.54104808730122</v>
+        <v>59.54108343533212</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.035488054896436e-07</v>
+        <v>4.035490450664752e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1297,52 +1297,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.198865617469956</v>
+        <v>1.198865607796932</v>
       </c>
       <c r="C16" t="n">
-        <v>123.939059</v>
+        <v>123.939058</v>
       </c>
       <c r="D16" t="n">
-        <v>12553.2622500342</v>
+        <v>12553.26214874844</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08451283174615519</v>
+        <v>0.08451283106426498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2027533643878683</v>
+        <v>0.2027533627519566</v>
       </c>
       <c r="G16" t="n">
-        <v>1.825344626199571</v>
+        <v>1.825344611471812</v>
       </c>
       <c r="H16" t="n">
-        <v>5.357164310668474e-07</v>
+        <v>5.357164267444294e-07</v>
       </c>
       <c r="I16" t="n">
-        <v>9.2740448456054e-06</v>
+        <v>9.274044770777942e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>10.31976680726677</v>
+        <v>10.31976672400193</v>
       </c>
       <c r="K16" t="n">
-        <v>2987.72225619359</v>
+        <v>2987.722232087208</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02447827980509327</v>
+        <v>0.02447827960759073</v>
       </c>
       <c r="M16" t="n">
-        <v>1.112707660198511e-05</v>
+        <v>1.112707651220651e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5960667321059633</v>
+        <v>0.5960667272966099</v>
       </c>
       <c r="O16" t="n">
-        <v>159.3662559881838</v>
+        <v>159.3662547023401</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.525354173207</v>
+        <v>1460.525342388985</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.935481765860406e-06</v>
+        <v>9.935481685696156e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1352,52 +1352,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.559737517892692e-08</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003374418764665639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.201769615937332e-10</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.686793388363699e-09</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.323985982920337e-08</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.558839203876484e-15</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.126184597908047e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.501996577123182e-08</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.177941208224938e-05</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.872053213494345e-10</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.384687136574769e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>8.955993767240631e-09</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.197306911746902e-06</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.260419615421541e-05</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.496187754372581e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1517,52 +1517,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6876434537782832</v>
+        <v>0.6876434649761991</v>
       </c>
       <c r="C20" t="n">
-        <v>61.40816399999999</v>
+        <v>61.40816499999999</v>
       </c>
       <c r="D20" t="n">
-        <v>6572.177051581431</v>
+        <v>6572.177158605915</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05200324586510163</v>
+        <v>0.05200324671194743</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0987582441193771</v>
+        <v>0.09875824572760374</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8996371089935504</v>
+        <v>0.8996371236436728</v>
       </c>
       <c r="H20" t="n">
-        <v>3.406160131590891e-07</v>
+        <v>3.406160187058437e-07</v>
       </c>
       <c r="I20" t="n">
-        <v>6.766912275421767e-06</v>
+        <v>6.766912385617412e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>8.029529425429496</v>
+        <v>8.029529556186207</v>
       </c>
       <c r="K20" t="n">
-        <v>712.3437817130152</v>
+        <v>712.3437933131631</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01646507504338086</v>
+        <v>0.01646507531150605</v>
       </c>
       <c r="M20" t="n">
-        <v>7.876400557389426e-06</v>
+        <v>7.876400685652511e-06</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3210180548793209</v>
+        <v>0.3210180601069329</v>
       </c>
       <c r="O20" t="n">
-        <v>74.08287997747001</v>
+        <v>74.08288118387118</v>
       </c>
       <c r="P20" t="n">
-        <v>775.4449102657732</v>
+        <v>775.4449228934901</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.449929781447516e-06</v>
+        <v>6.449929886481266e-06</v>
       </c>
     </row>
     <row r="21">
@@ -1572,52 +1572,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.25642455787745</v>
+        <v>17.25642472530814</v>
       </c>
       <c r="C21" t="n">
-        <v>2267.453755</v>
+        <v>2267.453777</v>
       </c>
       <c r="D21" t="n">
-        <v>190118.4184601646</v>
+        <v>190118.4203047911</v>
       </c>
       <c r="E21" t="n">
-        <v>1.293971830615198</v>
+        <v>1.293971843169977</v>
       </c>
       <c r="F21" t="n">
-        <v>3.048937417921661</v>
+        <v>3.048937447504017</v>
       </c>
       <c r="G21" t="n">
-        <v>27.71645361059146</v>
+        <v>27.71645387951072</v>
       </c>
       <c r="H21" t="n">
-        <v>9.484635075102627e-06</v>
+        <v>9.484635167127425e-06</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001380505223391627</v>
+        <v>0.0001380505236785998</v>
       </c>
       <c r="J21" t="n">
-        <v>197.4295958270142</v>
+        <v>197.4295977425775</v>
       </c>
       <c r="K21" t="n">
-        <v>19742.94466023635</v>
+        <v>19742.94485179253</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3502000244210005</v>
+        <v>0.3502000278188209</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0002573916035458273</v>
+        <v>0.0002573916060431728</v>
       </c>
       <c r="N21" t="n">
-        <v>11.73324852322652</v>
+        <v>11.73324863706852</v>
       </c>
       <c r="O21" t="n">
-        <v>1438.819136622974</v>
+        <v>1438.819150583136</v>
       </c>
       <c r="P21" t="n">
-        <v>26611.34007213504</v>
+        <v>26611.34033033192</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0001831907895018391</v>
+        <v>0.0001831907912792502</v>
       </c>
     </row>
     <row r="22">
@@ -1682,52 +1682,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.41024367168978</v>
+        <v>13.41024334648077</v>
       </c>
       <c r="C23" t="n">
-        <v>1773.13809</v>
+        <v>1773.138047</v>
       </c>
       <c r="D23" t="n">
-        <v>147478.691111975</v>
+        <v>147478.6875355002</v>
       </c>
       <c r="E23" t="n">
-        <v>1.01695796860167</v>
+        <v>1.016957943939635</v>
       </c>
       <c r="F23" t="n">
-        <v>2.384954306937875</v>
+        <v>2.384954249100848</v>
       </c>
       <c r="G23" t="n">
-        <v>21.6241633963939</v>
+        <v>21.62416287199085</v>
       </c>
       <c r="H23" t="n">
-        <v>7.42525780316744e-06</v>
+        <v>7.425257623099071e-06</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001080853109521563</v>
+        <v>0.0001080853083310021</v>
       </c>
       <c r="J23" t="n">
-        <v>154.8931051137724</v>
+        <v>154.8931013574922</v>
       </c>
       <c r="K23" t="n">
-        <v>15479.47892225464</v>
+        <v>15479.47854686504</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2766979199215987</v>
+        <v>0.2766979132114555</v>
       </c>
       <c r="M23" t="n">
-        <v>0.000201372241212386</v>
+        <v>0.00020137223632895</v>
       </c>
       <c r="N23" t="n">
-        <v>9.169902970594338</v>
+        <v>9.169902748216945</v>
       </c>
       <c r="O23" t="n">
-        <v>1128.012876744739</v>
+        <v>1128.012849389536</v>
       </c>
       <c r="P23" t="n">
-        <v>20828.4801853177</v>
+        <v>20828.4796802106</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0001431188206980838</v>
+        <v>0.0001431188172273393</v>
       </c>
     </row>
     <row r="24">
@@ -1847,52 +1847,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06441639960137922</v>
+        <v>0.06441665574560157</v>
       </c>
       <c r="C26" t="n">
-        <v>8.55048599999999</v>
+        <v>8.550520000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>705.7974600152762</v>
+        <v>705.8002665357064</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004845538105743171</v>
+        <v>0.004845557373454463</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01148777962266133</v>
+        <v>0.0114878253024633</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1042693582922569</v>
+        <v>0.1042697729070733</v>
       </c>
       <c r="H26" t="n">
-        <v>4.350365709212587e-08</v>
+        <v>4.350383007929193e-08</v>
       </c>
       <c r="I26" t="n">
-        <v>5.185265182000389e-07</v>
+        <v>5.185285800596367e-07</v>
       </c>
       <c r="J26" t="n">
-        <v>0.757745255473064</v>
+        <v>0.7577482685577817</v>
       </c>
       <c r="K26" t="n">
-        <v>75.66381901805539</v>
+        <v>75.66411988631567</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001314966616857401</v>
+        <v>0.001314971845667201</v>
       </c>
       <c r="M26" t="n">
-        <v>9.741326341643756e-07</v>
+        <v>9.74136507688006e-07</v>
       </c>
       <c r="N26" t="n">
-        <v>0.04390194331664083</v>
+        <v>0.04390211788754513</v>
       </c>
       <c r="O26" t="n">
-        <v>5.411311959629425</v>
+        <v>5.411333477073777</v>
       </c>
       <c r="P26" t="n">
-        <v>98.54656350469433</v>
+        <v>98.54695536349163</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.951388104984833e-07</v>
+        <v>6.951415746360498e-07</v>
       </c>
     </row>
     <row r="27">
@@ -1902,52 +1902,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.220479279397166e-06</v>
+        <v>4.382533170871217e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000776</v>
+        <v>0.000471</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07675909967351069</v>
+        <v>0.04658960817812311</v>
       </c>
       <c r="E27" t="n">
-        <v>5.679978461248002e-07</v>
+        <v>3.447512700061609e-07</v>
       </c>
       <c r="F27" t="n">
-        <v>1.167646551346725e-06</v>
+        <v>7.087133062942106e-07</v>
       </c>
       <c r="G27" t="n">
-        <v>1.041360047747919e-05</v>
+        <v>6.320626063006054e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>3.615801356455782e-12</v>
+        <v>2.194642318158084e-12</v>
       </c>
       <c r="I27" t="n">
-        <v>6.491521318925301e-11</v>
+        <v>3.940085748986877e-11</v>
       </c>
       <c r="J27" t="n">
-        <v>8.130560290905484e-05</v>
+        <v>4.93491481574289e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>0.007820132700803612</v>
+        <v>0.00474649806968879</v>
       </c>
       <c r="L27" t="n">
-        <v>1.684130027829799e-07</v>
+        <v>1.022197478231746e-07</v>
       </c>
       <c r="M27" t="n">
-        <v>9.140314649574053e-11</v>
+        <v>5.547794072099715e-11</v>
       </c>
       <c r="N27" t="n">
-        <v>4.050864181594486e-06</v>
+        <v>2.45870751228222e-06</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0006451691333688811</v>
+        <v>0.0003915910590421945</v>
       </c>
       <c r="P27" t="n">
-        <v>0.009355798360382247</v>
+        <v>0.005678583798634069</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.027716671005818e-11</v>
+        <v>4.265534216551211e-11</v>
       </c>
     </row>
     <row r="28">
@@ -1957,52 +1957,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.15371870541164e-07</v>
+        <v>6.592678316637943e-08</v>
       </c>
       <c r="C28" t="n">
-        <v>7.000000000000001e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0004696269820159992</v>
+        <v>0.0002683582754377138</v>
       </c>
       <c r="E28" t="n">
-        <v>3.482833811234597e-09</v>
+        <v>1.990190749276912e-09</v>
       </c>
       <c r="F28" t="n">
-        <v>1.674001447145516e-08</v>
+        <v>9.565722555117235e-09</v>
       </c>
       <c r="G28" t="n">
-        <v>1.7808542002342e-07</v>
+        <v>1.0176309715624e-07</v>
       </c>
       <c r="H28" t="n">
-        <v>5.767117178926722e-14</v>
+        <v>3.295495530815269e-14</v>
       </c>
       <c r="I28" t="n">
-        <v>9.031585927805299e-13</v>
+        <v>5.16090624446017e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>4.914061763025505e-07</v>
+        <v>2.808035293157431e-07</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001170274326322953</v>
+        <v>6.687281864702584e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>1.428402531014188e-09</v>
+        <v>8.162300177223931e-10</v>
       </c>
       <c r="M28" t="n">
-        <v>1.329541189107936e-12</v>
+        <v>7.59737822347392e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>5.644980147704121e-08</v>
+        <v>3.225702941545211e-08</v>
       </c>
       <c r="O28" t="n">
-        <v>3.363949349593044e-06</v>
+        <v>1.922256771196025e-06</v>
       </c>
       <c r="P28" t="n">
-        <v>9.581764420627812e-05</v>
+        <v>5.475293954644463e-05</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.872708278514317e-13</v>
+        <v>5.641547587722466e-13</v>
       </c>
     </row>
     <row r="29">
@@ -2012,52 +2012,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.94450873747846e-08</v>
+        <v>3.296339158318973e-08</v>
       </c>
       <c r="C29" t="n">
-        <v>3e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0002012687065782855</v>
+        <v>0.000134179137718857</v>
       </c>
       <c r="E29" t="n">
-        <v>1.492643061957686e-09</v>
+        <v>9.950953746384567e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>7.174291916337922e-09</v>
+        <v>4.782861277558614e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>7.632232286717997e-08</v>
+        <v>5.088154857811997e-08</v>
       </c>
       <c r="H29" t="n">
-        <v>2.471621648111667e-14</v>
+        <v>1.647747765407777e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>3.870679683347617e-13</v>
+        <v>2.580453122231744e-13</v>
       </c>
       <c r="J29" t="n">
-        <v>2.106026469868073e-07</v>
+        <v>1.404017646578715e-07</v>
       </c>
       <c r="K29" t="n">
-        <v>5.015461398526941e-05</v>
+        <v>3.343640932351293e-05</v>
       </c>
       <c r="L29" t="n">
-        <v>6.121725132917965e-10</v>
+        <v>4.081150088611975e-10</v>
       </c>
       <c r="M29" t="n">
-        <v>5.698033667605447e-13</v>
+        <v>3.798689111736964e-13</v>
       </c>
       <c r="N29" t="n">
-        <v>2.419277206158908e-08</v>
+        <v>1.612851470772605e-08</v>
       </c>
       <c r="O29" t="n">
-        <v>1.441692578397015e-06</v>
+        <v>9.611283855980099e-07</v>
       </c>
       <c r="P29" t="n">
-        <v>4.106470465983347e-05</v>
+        <v>2.737646977322231e-05</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.231160690791852e-13</v>
+        <v>2.820773793861234e-13</v>
       </c>
     </row>
     <row r="30">
@@ -2067,52 +2067,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.3475857576048e-06</v>
+        <v>2.662852307185636e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00044</v>
+        <v>0.00035</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01127699948731452</v>
+        <v>0.008970340501272914</v>
       </c>
       <c r="E30" t="n">
-        <v>5.843178366062329e-08</v>
+        <v>4.647982791185943e-08</v>
       </c>
       <c r="F30" t="n">
-        <v>9.381885993368786e-07</v>
+        <v>7.462863858361533e-07</v>
       </c>
       <c r="G30" t="n">
-        <v>1.148629259022946e-05</v>
+        <v>9.136823651318888e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>4.447183824098595e-13</v>
+        <v>3.537532587351155e-13</v>
       </c>
       <c r="I30" t="n">
-        <v>5.310123197441722e-12</v>
+        <v>4.223961634328643e-12</v>
       </c>
       <c r="J30" t="n">
-        <v>4.80368715868963e-05</v>
+        <v>3.821114785321296e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00175412607313283</v>
+        <v>0.001395327558173842</v>
       </c>
       <c r="L30" t="n">
-        <v>6.997663265294307e-09</v>
+        <v>5.566323051938653e-09</v>
       </c>
       <c r="M30" t="n">
-        <v>2.464151151764402e-11</v>
+        <v>1.960120234358047e-11</v>
       </c>
       <c r="N30" t="n">
-        <v>1.941869766453606e-06</v>
+        <v>1.544669132406278e-06</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0002378530079439261</v>
+        <v>0.0001892012563190321</v>
       </c>
       <c r="P30" t="n">
-        <v>0.007997686231042</v>
+        <v>0.00636179586560159</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.457748397386508e-11</v>
+        <v>3.545936225193813e-11</v>
       </c>
     </row>
     <row r="31">
@@ -2122,52 +2122,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.794598131489843e-07</v>
+        <v>1.380460101146033e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>1.3e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001115055868676497</v>
+        <v>0.0008577352835973053</v>
       </c>
       <c r="E31" t="n">
-        <v>8.835767966797271e-09</v>
+        <v>6.796744589844054e-09</v>
       </c>
       <c r="F31" t="n">
-        <v>1.750236737564212e-08</v>
+        <v>1.346335951972471e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920119132326659e-07</v>
+        <v>1.477014717174353e-07</v>
       </c>
       <c r="H31" t="n">
-        <v>1.153410236338466e-13</v>
+        <v>8.872386433372812e-14</v>
       </c>
       <c r="I31" t="n">
-        <v>2.133542732654678e-12</v>
+        <v>1.641186717426675e-12</v>
       </c>
       <c r="J31" t="n">
-        <v>8.556151745502235e-07</v>
+        <v>6.581655188847873e-07</v>
       </c>
       <c r="K31" t="n">
-        <v>0.000260639190780209</v>
+        <v>0.0002004916852155453</v>
       </c>
       <c r="L31" t="n">
-        <v>3.443389534185195e-09</v>
+        <v>2.648761180142458e-09</v>
       </c>
       <c r="M31" t="n">
-        <v>1.578794188705579e-12</v>
+        <v>1.21445706823506e-12</v>
       </c>
       <c r="N31" t="n">
-        <v>6.864616776974956e-08</v>
+        <v>5.280474443826889e-08</v>
       </c>
       <c r="O31" t="n">
-        <v>6.261930227408695e-06</v>
+        <v>4.816869405698996e-06</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0001409909480058137</v>
+        <v>0.0001084545753890874</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.282508800121654e-12</v>
+        <v>9.865452308628104e-13</v>
       </c>
     </row>
     <row r="32">
@@ -2177,52 +2177,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03265979380234709</v>
+        <v>0.03268871523490006</v>
       </c>
       <c r="C32" t="n">
-        <v>3.559424999999997</v>
+        <v>3.562576999999993</v>
       </c>
       <c r="D32" t="n">
-        <v>237.4848751431568</v>
+        <v>237.6951766178192</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002250940997822759</v>
+        <v>0.002252934287757265</v>
       </c>
       <c r="F32" t="n">
-        <v>0.006321638593405129</v>
+        <v>0.006327236633775804</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06266020195504769</v>
+        <v>0.06271568983765853</v>
       </c>
       <c r="H32" t="n">
-        <v>2.499788929265151e-08</v>
+        <v>2.502002583073009e-08</v>
       </c>
       <c r="I32" t="n">
-        <v>2.91310023829364e-07</v>
+        <v>2.915679894263661e-07</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1927396072207625</v>
+        <v>0.1929102851369875</v>
       </c>
       <c r="K32" t="n">
-        <v>71.99277103217443</v>
+        <v>72.0565232433583</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0003583334590055425</v>
+        <v>0.0003586507762865034</v>
       </c>
       <c r="M32" t="n">
-        <v>5.207827339520801e-07</v>
+        <v>5.212439059608779e-07</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0223563603405555</v>
+        <v>0.02237615770889262</v>
       </c>
       <c r="O32" t="n">
-        <v>2.299442346794022</v>
+        <v>2.301478586433033</v>
       </c>
       <c r="P32" t="n">
-        <v>39.03063401977347</v>
+        <v>39.06519706252059</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.848361607486798e-07</v>
+        <v>2.850883935050038e-07</v>
       </c>
     </row>
     <row r="33">
@@ -2342,52 +2342,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6645021090908151</v>
+        <v>0.6645209568992154</v>
       </c>
       <c r="C35" t="n">
-        <v>40.474118</v>
+        <v>40.475266</v>
       </c>
       <c r="D35" t="n">
-        <v>5814.825547875538</v>
+        <v>5814.990478454853</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05015141234101116</v>
+        <v>0.05015283482590304</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06982185749365376</v>
+        <v>0.06982383790722084</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7021959634600978</v>
+        <v>0.7022158804096421</v>
       </c>
       <c r="H35" t="n">
-        <v>4.690440271326864e-07</v>
+        <v>4.690573310061185e-07</v>
       </c>
       <c r="I35" t="n">
-        <v>8.10307916974989e-06</v>
+        <v>8.103309003909262e-06</v>
       </c>
       <c r="J35" t="n">
-        <v>3.477644874839158</v>
+        <v>3.477743514081063</v>
       </c>
       <c r="K35" t="n">
-        <v>516.6873635418171</v>
+        <v>516.7020187615639</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01234134356379964</v>
+        <v>0.01234169361126482</v>
       </c>
       <c r="M35" t="n">
-        <v>5.279586787371532e-06</v>
+        <v>5.279736536542889e-06</v>
       </c>
       <c r="N35" t="n">
-        <v>0.245266602103839</v>
+        <v>0.2452735587979717</v>
       </c>
       <c r="O35" t="n">
-        <v>32.5801532849996</v>
+        <v>32.5810773821219</v>
       </c>
       <c r="P35" t="n">
-        <v>482.6453822136316</v>
+        <v>482.6590718732501</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.908172509137634e-06</v>
+        <v>2.908254995976272e-06</v>
       </c>
     </row>
     <row r="36">
@@ -2397,52 +2397,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8081443599025593</v>
+        <v>0.8081491375264657</v>
       </c>
       <c r="C36" t="n">
-        <v>49.223215</v>
+        <v>49.22350600000001</v>
       </c>
       <c r="D36" t="n">
-        <v>7071.788646032273</v>
+        <v>7071.83045334811</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06099240389167333</v>
+        <v>0.06099276446928967</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08491491533205198</v>
+        <v>0.08491541733583946</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8539863149464689</v>
+        <v>0.8539913635808918</v>
       </c>
       <c r="H36" t="n">
-        <v>5.704350368306496e-07</v>
+        <v>5.704384091539675e-07</v>
       </c>
       <c r="I36" t="n">
-        <v>9.854683136878248e-06</v>
+        <v>9.854741396233979e-06</v>
       </c>
       <c r="J36" t="n">
-        <v>4.229390776788662</v>
+        <v>4.229415780289878</v>
       </c>
       <c r="K36" t="n">
-        <v>628.3772059814133</v>
+        <v>628.3809208498336</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01500911292569182</v>
+        <v>0.01500920165723569</v>
       </c>
       <c r="M36" t="n">
-        <v>6.420849876109672e-06</v>
+        <v>6.420887835176628e-06</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2982847133982443</v>
+        <v>0.2982864768111299</v>
       </c>
       <c r="O36" t="n">
-        <v>39.6228495919415</v>
+        <v>39.62308383607268</v>
       </c>
       <c r="P36" t="n">
-        <v>586.9765319520678</v>
+        <v>586.9800020661351</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.536818286549721e-06</v>
+        <v>3.536839195669968e-06</v>
       </c>
     </row>
     <row r="37">
@@ -2452,52 +2452,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3140144512247569</v>
+        <v>0.3140165043603603</v>
       </c>
       <c r="C37" t="n">
-        <v>62.70697599999998</v>
+        <v>62.707386</v>
       </c>
       <c r="D37" t="n">
-        <v>1795.675201606654</v>
+        <v>1795.686942355127</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01021540875646034</v>
+        <v>0.01021547554835268</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09885132857633028</v>
+        <v>0.09885197490066776</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9522480851701906</v>
+        <v>0.9522543112990814</v>
       </c>
       <c r="H37" t="n">
-        <v>9.316138246012379e-08</v>
+        <v>9.316199158161628e-08</v>
       </c>
       <c r="I37" t="n">
-        <v>1.714578820047928e-06</v>
+        <v>1.714590030560077e-06</v>
       </c>
       <c r="J37" t="n">
-        <v>3.106496734577212</v>
+        <v>3.106517045932383</v>
       </c>
       <c r="K37" t="n">
-        <v>3449.487441228454</v>
+        <v>3449.509995176056</v>
       </c>
       <c r="L37" t="n">
-        <v>0.001535783607197887</v>
+        <v>0.001535793648684802</v>
       </c>
       <c r="M37" t="n">
-        <v>6.151780446682498e-06</v>
+        <v>6.151820669160828e-06</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2505082624449857</v>
+        <v>0.2505099003550582</v>
       </c>
       <c r="O37" t="n">
-        <v>24.97194079705443</v>
+        <v>24.97210407228121</v>
       </c>
       <c r="P37" t="n">
-        <v>507.6341215972546</v>
+        <v>507.6374406855466</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.955655826295476e-06</v>
+        <v>5.955694766442883e-06</v>
       </c>
     </row>
     <row r="38">
@@ -2507,52 +2507,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.08093163231602428</v>
+        <v>0.08093177963185112</v>
       </c>
       <c r="C38" t="n">
-        <v>9.339374999999979</v>
+        <v>9.339391999999989</v>
       </c>
       <c r="D38" t="n">
-        <v>493.4797897486381</v>
+        <v>493.4806880053663</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004371353827841979</v>
+        <v>0.004371361784800032</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0115887278037966</v>
+        <v>0.0115887488981817</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1194694343910963</v>
+        <v>0.1194696518553684</v>
       </c>
       <c r="H38" t="n">
-        <v>3.493895797477141e-08</v>
+        <v>3.493902157241965e-08</v>
       </c>
       <c r="I38" t="n">
-        <v>5.034383920994215e-07</v>
+        <v>5.034393084832985e-07</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7267559001016959</v>
+        <v>0.7267572229793305</v>
       </c>
       <c r="K38" t="n">
-        <v>74.68473408452242</v>
+        <v>74.68487002943097</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0005376634145263508</v>
+        <v>0.0005376643932083347</v>
       </c>
       <c r="M38" t="n">
-        <v>9.188025640369211e-07</v>
+        <v>9.188042364875507e-07</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03965614280385665</v>
+        <v>0.03965621498796192</v>
       </c>
       <c r="O38" t="n">
-        <v>3.687203273855224</v>
+        <v>3.687209985488036</v>
       </c>
       <c r="P38" t="n">
-        <v>108.5583174306103</v>
+        <v>108.5585150339186</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.716898337079276e-07</v>
+        <v>6.716910563515392e-07</v>
       </c>
     </row>
     <row r="39">
@@ -2672,52 +2672,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03449294601827922</v>
+        <v>0.03449319505090546</v>
       </c>
       <c r="C41" t="n">
-        <v>3.185677999999989</v>
+        <v>3.185700999999997</v>
       </c>
       <c r="D41" t="n">
-        <v>308.4284384510582</v>
+        <v>308.4306652467629</v>
       </c>
       <c r="E41" t="n">
-        <v>0.002642149251674453</v>
+        <v>0.002642168327498441</v>
       </c>
       <c r="F41" t="n">
-        <v>0.002060599125789004</v>
+        <v>0.002060614002929729</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02550591639765467</v>
+        <v>0.02550610054560601</v>
       </c>
       <c r="H41" t="n">
-        <v>9.582884585089419e-09</v>
+        <v>9.582953771725839e-09</v>
       </c>
       <c r="I41" t="n">
-        <v>4.580781078508298e-07</v>
+        <v>4.580814150891897e-07</v>
       </c>
       <c r="J41" t="n">
-        <v>0.09653596379878641</v>
+        <v>0.09653666077041008</v>
       </c>
       <c r="K41" t="n">
-        <v>16.46885824666304</v>
+        <v>16.46897714874285</v>
       </c>
       <c r="L41" t="n">
-        <v>0.000804515917487578</v>
+        <v>0.0008045217259422016</v>
       </c>
       <c r="M41" t="n">
-        <v>1.351706414500483e-07</v>
+        <v>1.351716173568268e-07</v>
       </c>
       <c r="N41" t="n">
-        <v>0.008300012739431992</v>
+        <v>0.008300072663973352</v>
       </c>
       <c r="O41" t="n">
-        <v>0.798270866196204</v>
+        <v>0.7982766295627242</v>
       </c>
       <c r="P41" t="n">
-        <v>11.50413798406746</v>
+        <v>11.50422104179449</v>
       </c>
       <c r="Q41" t="n">
-        <v>6.57944142508412e-06</v>
+        <v>6.57948892742203e-06</v>
       </c>
     </row>
     <row r="42">
@@ -2727,52 +2727,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.260170209411218</v>
+        <v>1.260178109219996</v>
       </c>
       <c r="C42" t="n">
-        <v>51.36514299999986</v>
+        <v>51.36546499999995</v>
       </c>
       <c r="D42" t="n">
-        <v>10333.77082789273</v>
+        <v>10333.83560867622</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08604792985676156</v>
+        <v>0.08604846927769576</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09237963638972575</v>
+        <v>0.09238021550313202</v>
       </c>
       <c r="G42" t="n">
-        <v>1.102277500218406</v>
+        <v>1.102284410222631</v>
       </c>
       <c r="H42" t="n">
-        <v>5.195996041768058e-07</v>
+        <v>5.196028614649748e-07</v>
       </c>
       <c r="I42" t="n">
-        <v>1.439771009086168e-05</v>
+        <v>1.439780034784102e-05</v>
       </c>
       <c r="J42" t="n">
-        <v>3.737136861123327</v>
+        <v>3.737160288646339</v>
       </c>
       <c r="K42" t="n">
-        <v>725.6224838635761</v>
+        <v>725.627032676764</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02512379685244672</v>
+        <v>0.02512395434957642</v>
       </c>
       <c r="M42" t="n">
-        <v>6.505137237749368e-06</v>
+        <v>6.505178017431246e-06</v>
       </c>
       <c r="N42" t="n">
-        <v>0.3212409577980687</v>
+        <v>0.3212429716070916</v>
       </c>
       <c r="O42" t="n">
-        <v>32.51962826541531</v>
+        <v>32.51983212584853</v>
       </c>
       <c r="P42" t="n">
-        <v>571.8815848693306</v>
+        <v>571.8851699050109</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.305033246116897e-06</v>
+        <v>4.305060233692998e-06</v>
       </c>
     </row>
     <row r="43">
@@ -2892,52 +2892,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0009619802282504061</v>
+        <v>0.0009618591117107029</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1985649999999998</v>
+        <v>0.1985399999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>7.037457863527753</v>
+        <v>7.036571823960923</v>
       </c>
       <c r="E45" t="n">
-        <v>6.299424215009139e-05</v>
+        <v>6.298631096355929e-05</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0002124324116498446</v>
+        <v>0.0002124056656961708</v>
       </c>
       <c r="G45" t="n">
-        <v>0.002118973910926608</v>
+        <v>0.00211870712499871</v>
       </c>
       <c r="H45" t="n">
-        <v>3.270789834897208e-09</v>
+        <v>3.270378031478316e-09</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530256331750338e-08</v>
+        <v>3.529811860628572e-08</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01350838220309371</v>
+        <v>0.01350668145243233</v>
       </c>
       <c r="K45" t="n">
-        <v>1.48028717653389</v>
+        <v>1.480100803409657</v>
       </c>
       <c r="L45" t="n">
-        <v>2.116385514589727e-06</v>
+        <v>2.116119054549616e-06</v>
       </c>
       <c r="M45" t="n">
-        <v>2.37007964534667e-08</v>
+        <v>2.369781244363951e-08</v>
       </c>
       <c r="N45" t="n">
-        <v>0.000935651197736903</v>
+        <v>0.000935533396110517</v>
       </c>
       <c r="O45" t="n">
-        <v>0.06578807568942123</v>
+        <v>0.0657797927498688</v>
       </c>
       <c r="P45" t="n">
-        <v>2.331565138143143</v>
+        <v>2.331271586266159</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.24548397887497e-08</v>
+        <v>1.24532716826146e-08</v>
       </c>
     </row>
     <row r="46">
@@ -2947,52 +2947,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.00986454830265e-05</v>
+        <v>5.008895615985165e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01034099999999969</v>
+        <v>0.01033899999999998</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3665014064247896</v>
+        <v>0.3664305232594536</v>
       </c>
       <c r="E46" t="n">
-        <v>3.28065599714993e-06</v>
+        <v>3.280021502227455e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>1.106319627764701e-05</v>
+        <v>1.106105660135342e-05</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0001103533312159314</v>
+        <v>0.0001103319883417027</v>
       </c>
       <c r="H46" t="n">
-        <v>1.70338366190774e-10</v>
+        <v>1.703054219172674e-10</v>
       </c>
       <c r="I46" t="n">
-        <v>1.838510348078925e-09</v>
+        <v>1.838154771181564e-09</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0007034985035740838</v>
+        <v>0.0007033624435211935</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07709137910778086</v>
+        <v>0.07707646925784443</v>
       </c>
       <c r="L46" t="n">
-        <v>1.102185309917242e-07</v>
+        <v>1.101972141885185e-07</v>
       </c>
       <c r="M46" t="n">
-        <v>1.234305824920262e-09</v>
+        <v>1.234067104134123e-09</v>
       </c>
       <c r="N46" t="n">
-        <v>4.872746473848378e-05</v>
+        <v>4.871804060837426e-05</v>
       </c>
       <c r="O46" t="n">
-        <v>0.003426155116482185</v>
+        <v>0.003425492481318086</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1214247983961803</v>
+        <v>0.1214013142460249</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.486314217281842e-10</v>
+        <v>6.485059732373938e-10</v>
       </c>
     </row>
     <row r="47">
@@ -3112,52 +3112,52 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.07998181295979456</v>
+        <v>0.07996963298660445</v>
       </c>
       <c r="C49" t="n">
-        <v>4.852765999999995</v>
+        <v>4.852026999999987</v>
       </c>
       <c r="D49" t="n">
-        <v>325.5699787156927</v>
+        <v>325.520399524305</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00241448250040138</v>
+        <v>0.002414114812660447</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01160505329522649</v>
+        <v>0.01160328602798442</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1234581244836242</v>
+        <v>0.1234393237514244</v>
       </c>
       <c r="H49" t="n">
-        <v>3.998067166273113e-08</v>
+        <v>3.997458323473789e-08</v>
       </c>
       <c r="I49" t="n">
-        <v>6.261167588076464e-07</v>
+        <v>6.260214110647789e-07</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3406684549358599</v>
+        <v>0.3406165764838183</v>
       </c>
       <c r="K49" t="n">
-        <v>81.12953516361311</v>
+        <v>81.11718041036794</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0009902433195456556</v>
+        <v>0.0009900925210498798</v>
       </c>
       <c r="M49" t="n">
-        <v>9.217074683003655e-07</v>
+        <v>9.215671067376853e-07</v>
       </c>
       <c r="N49" t="n">
-        <v>0.03913395390207641</v>
+        <v>0.03912799441589185</v>
       </c>
       <c r="O49" t="n">
-        <v>2.332065575632447</v>
+        <v>2.331710438693965</v>
       </c>
       <c r="P49" t="n">
-        <v>66.42580085776036</v>
+        <v>66.41568525217906</v>
       </c>
       <c r="Q49" t="n">
-        <v>6.844277580270401e-07</v>
+        <v>6.843235304353558e-07</v>
       </c>
     </row>
     <row r="50">
@@ -3167,52 +3167,52 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01730631567270501</v>
+        <v>0.01730376869945514</v>
       </c>
       <c r="C50" t="n">
-        <v>4.002169999999994</v>
+        <v>4.001580999999982</v>
       </c>
       <c r="D50" t="n">
-        <v>107.953216080526</v>
+        <v>107.9373285884223</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000999439553870987</v>
+        <v>0.0009992924661917425</v>
       </c>
       <c r="F50" t="n">
-        <v>0.005103651833326567</v>
+        <v>0.005102900728068696</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04841134374243674</v>
+        <v>0.04840421903722309</v>
       </c>
       <c r="H50" t="n">
-        <v>1.923365844320175e-08</v>
+        <v>1.92308278226076e-08</v>
       </c>
       <c r="I50" t="n">
-        <v>9.974100730167096e-08</v>
+        <v>9.972632840164873e-08</v>
       </c>
       <c r="J50" t="n">
-        <v>0.211250833856855</v>
+        <v>0.2112197440377957</v>
       </c>
       <c r="K50" t="n">
-        <v>47.64079455157792</v>
+        <v>47.63378324821213</v>
       </c>
       <c r="L50" t="n">
-        <v>4.153240589260937e-05</v>
+        <v>4.152629356178103e-05</v>
       </c>
       <c r="M50" t="n">
-        <v>4.840242284217602e-07</v>
+        <v>4.83952994498527e-07</v>
       </c>
       <c r="N50" t="n">
-        <v>0.01721483597581368</v>
+        <v>0.01721230246564545</v>
       </c>
       <c r="O50" t="n">
-        <v>1.886961376241807</v>
+        <v>1.886683671833791</v>
       </c>
       <c r="P50" t="n">
-        <v>43.11503479758274</v>
+        <v>43.10868955100493</v>
       </c>
       <c r="Q50" t="n">
-        <v>4.631491435690875e-07</v>
+        <v>4.63080981835436e-07</v>
       </c>
     </row>
     <row r="51">
@@ -3277,52 +3277,52 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003512850743251127</v>
+        <v>0.003512425310896908</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5036849999999943</v>
+        <v>0.5036239999999953</v>
       </c>
       <c r="D52" t="n">
-        <v>22.14294520648368</v>
+        <v>22.14026353111599</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0002018190724848548</v>
+        <v>0.0002017946306940106</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0007578986802256053</v>
+        <v>0.0007578068930580443</v>
       </c>
       <c r="G52" t="n">
-        <v>0.006537369182362101</v>
+        <v>0.006536577458327997</v>
       </c>
       <c r="H52" t="n">
-        <v>6.636160598592205e-09</v>
+        <v>6.635356910182768e-09</v>
       </c>
       <c r="I52" t="n">
-        <v>2.92633676037841e-08</v>
+        <v>2.925982359230113e-08</v>
       </c>
       <c r="J52" t="n">
-        <v>0.03875696429306912</v>
+        <v>0.03875227053641201</v>
       </c>
       <c r="K52" t="n">
-        <v>10.3027080312105</v>
+        <v>10.30146029663454</v>
       </c>
       <c r="L52" t="n">
-        <v>1.659672727429317e-05</v>
+        <v>1.659471728717083e-05</v>
       </c>
       <c r="M52" t="n">
-        <v>6.200881417540661e-08</v>
+        <v>6.200130444677734e-08</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0026361273897664</v>
+        <v>0.002635808135131513</v>
       </c>
       <c r="O52" t="n">
-        <v>0.4156375430376986</v>
+        <v>0.4155872062396505</v>
       </c>
       <c r="P52" t="n">
-        <v>5.965922003500145</v>
+        <v>5.965199485969928</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.057906525749296e-06</v>
+        <v>2.057657297961952e-06</v>
       </c>
     </row>
     <row r="53">
@@ -3387,52 +3387,52 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005392173524042625</v>
+        <v>0.005391383116142222</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4980069999999948</v>
+        <v>0.4979339999999947</v>
       </c>
       <c r="D54" t="n">
-        <v>48.2156455698583</v>
+        <v>48.20857791392856</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0004130388640592772</v>
+        <v>0.0004129783190527283</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0003221269660137646</v>
+        <v>0.0003220797472627851</v>
       </c>
       <c r="G54" t="n">
-        <v>0.003987259511930182</v>
+        <v>0.003986675042345675</v>
       </c>
       <c r="H54" t="n">
-        <v>1.498062140482055e-09</v>
+        <v>1.497842548114367e-09</v>
       </c>
       <c r="I54" t="n">
-        <v>7.160990666867982e-08</v>
+        <v>7.159940978171472e-08</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01509116292467157</v>
+        <v>0.01508895079734504</v>
       </c>
       <c r="K54" t="n">
-        <v>2.574524697362967</v>
+        <v>2.574147312501092</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0001257674374246969</v>
+        <v>0.0001257490018948107</v>
       </c>
       <c r="M54" t="n">
-        <v>2.113080029953238e-08</v>
+        <v>2.112770285627984e-08</v>
       </c>
       <c r="N54" t="n">
-        <v>0.00129751482865697</v>
+        <v>0.001297324633373586</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1247911682416648</v>
+        <v>0.1247728758174987</v>
       </c>
       <c r="P54" t="n">
-        <v>1.798405628262318</v>
+        <v>1.798142010259231</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.028543338586588e-06</v>
+        <v>1.028392570296751e-06</v>
       </c>
     </row>
     <row r="55">
@@ -3442,52 +3442,52 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6.378727582767904e-07</v>
+        <v>5.642720553986991e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>2.6e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.005230746491355272</v>
+        <v>0.004627198819275818</v>
       </c>
       <c r="E55" t="n">
-        <v>4.35557275928504e-08</v>
+        <v>3.853006671675228e-08</v>
       </c>
       <c r="F55" t="n">
-        <v>4.676070980923534e-08</v>
+        <v>4.136524329278511e-08</v>
       </c>
       <c r="G55" t="n">
-        <v>5.579506515864003e-07</v>
+        <v>4.93571730249508e-07</v>
       </c>
       <c r="H55" t="n">
-        <v>2.630108458687049e-13</v>
+        <v>2.32663440576162e-13</v>
       </c>
       <c r="I55" t="n">
-        <v>7.287830627910539e-12</v>
+        <v>6.446927093920862e-12</v>
       </c>
       <c r="J55" t="n">
-        <v>1.891663348220539e-06</v>
+        <v>1.673394500348938e-06</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0003672954746850998</v>
+        <v>0.0003249152276060498</v>
       </c>
       <c r="L55" t="n">
-        <v>1.271715953684032e-08</v>
+        <v>1.12497949748972e-08</v>
       </c>
       <c r="M55" t="n">
-        <v>3.292769343238936e-12</v>
+        <v>2.912834419019058e-12</v>
       </c>
       <c r="N55" t="n">
-        <v>1.626056974619891e-07</v>
+        <v>1.438435016009904e-07</v>
       </c>
       <c r="O55" t="n">
-        <v>1.646078031751611e-05</v>
+        <v>1.456145951164886e-05</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0002894749306276171</v>
+        <v>0.0002560739770936614</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.179121051002226e-12</v>
+        <v>1.927684006655816e-12</v>
       </c>
     </row>
     <row r="56">
@@ -3497,52 +3497,52 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6.275112397953818e-05</v>
+        <v>4.137294223108371e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>0.002902999999999998</v>
+        <v>0.001913999999999998</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5643841869020597</v>
+        <v>0.3721086234001177</v>
       </c>
       <c r="E56" t="n">
-        <v>5.029341310335988e-06</v>
+        <v>3.315934987248735e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>6.24709739339087e-06</v>
+        <v>4.118823427816094e-06</v>
       </c>
       <c r="G56" t="n">
-        <v>6.229130721161718e-05</v>
+        <v>4.106977678368421e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>4.076969509145664e-11</v>
+        <v>2.688019166553496e-11</v>
       </c>
       <c r="I56" t="n">
-        <v>8.512197453309153e-10</v>
+        <v>5.612244548960976e-10</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0002299577472148132</v>
+        <v>0.0001516152697792464</v>
       </c>
       <c r="K56" t="n">
-        <v>0.04673334844190168</v>
+        <v>0.03081213534888039</v>
       </c>
       <c r="L56" t="n">
-        <v>1.286396730651887e-06</v>
+        <v>8.48144451418433e-07</v>
       </c>
       <c r="M56" t="n">
-        <v>4.390918904842356e-10</v>
+        <v>2.895011637570881e-10</v>
       </c>
       <c r="N56" t="n">
-        <v>2.22580084702871e-05</v>
+        <v>1.467510444785721e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.002986780515336944</v>
+        <v>0.001969237997366486</v>
       </c>
       <c r="P56" t="n">
-        <v>0.03372386880299016</v>
+        <v>0.02223475194244683</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.285965558118122e-10</v>
+        <v>1.507178118580118e-10</v>
       </c>
     </row>
     <row r="57">
@@ -3662,52 +3662,52 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6.502079949378254e-05</v>
+        <v>4.299413902697254e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>0.003008</v>
+        <v>0.001988999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5847976693769882</v>
+        <v>0.3866896823107809</v>
       </c>
       <c r="E59" t="n">
-        <v>5.211249969511082e-06</v>
+        <v>3.445869743802373e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>6.473051656672325e-06</v>
+        <v>4.280219330159989e-06</v>
       </c>
       <c r="G59" t="n">
-        <v>6.454435139254039e-05</v>
+        <v>4.267909405577219e-05</v>
       </c>
       <c r="H59" t="n">
-        <v>4.224431375649372e-11</v>
+        <v>2.793349071199001e-11</v>
       </c>
       <c r="I59" t="n">
-        <v>8.820079207562409e-10</v>
+        <v>5.832160087713305e-10</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0002382751993186906</v>
+        <v>0.0001575563069963016</v>
       </c>
       <c r="K59" t="n">
-        <v>0.04842366934662085</v>
+        <v>0.0320195074236798</v>
       </c>
       <c r="L59" t="n">
-        <v>1.332925031278291e-06</v>
+        <v>8.81378951865864e-07</v>
       </c>
       <c r="M59" t="n">
-        <v>4.549736157687159e-10</v>
+        <v>3.008452532460024e-10</v>
       </c>
       <c r="N59" t="n">
-        <v>2.306306905911942e-05</v>
+        <v>1.525014772559458e-05</v>
       </c>
       <c r="O59" t="n">
-        <v>0.003094810812998119</v>
+        <v>0.002046402495695896</v>
       </c>
       <c r="P59" t="n">
-        <v>0.03494364359607115</v>
+        <v>0.02310601965179039</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.368647743306687e-10</v>
+        <v>1.566236822286236e-10</v>
       </c>
     </row>
     <row r="60">
@@ -3772,52 +3772,52 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.51034416682265e-06</v>
+        <v>9.859191088981186e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>7.2e-05</v>
+        <v>4.699999999999999e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01373131629612877</v>
+        <v>0.008963498137750724</v>
       </c>
       <c r="E61" t="n">
-        <v>1.155387820292881e-07</v>
+        <v>7.54211493802297e-08</v>
       </c>
       <c r="F61" t="n">
-        <v>1.453435718393439e-07</v>
+        <v>9.487705383957172e-08</v>
       </c>
       <c r="G61" t="n">
-        <v>1.712224939462033e-06</v>
+        <v>1.117702391037715e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>8.02241855159253e-13</v>
+        <v>5.236856554511789e-13</v>
       </c>
       <c r="I61" t="n">
-        <v>1.725183190060126e-11</v>
+        <v>1.126161249067026e-11</v>
       </c>
       <c r="J61" t="n">
-        <v>1.084395495371246e-05</v>
+        <v>7.078692817006743e-06</v>
       </c>
       <c r="K61" t="n">
-        <v>0.002822133431915085</v>
+        <v>0.001842225990277902</v>
       </c>
       <c r="L61" t="n">
-        <v>3.439066785335315e-08</v>
+        <v>2.244946373760553e-08</v>
       </c>
       <c r="M61" t="n">
-        <v>1.204127012905537e-11</v>
+        <v>7.860273556466697e-12</v>
       </c>
       <c r="N61" t="n">
-        <v>4.832456665439852e-07</v>
+        <v>3.154520323273236e-07</v>
       </c>
       <c r="O61" t="n">
-        <v>5.904568288167664e-05</v>
+        <v>3.854370965887224e-05</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0009248502481574237</v>
+        <v>0.0006037216897694292</v>
       </c>
       <c r="Q61" t="n">
-        <v>6.826005182365677e-12</v>
+        <v>4.455864494044261e-12</v>
       </c>
     </row>
     <row r="62">
@@ -3827,52 +3827,52 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3.219766345575611e-07</v>
+        <v>2.52627820960548e-07</v>
       </c>
       <c r="C62" t="n">
-        <v>6.499999999999999e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06745588771923057</v>
+        <v>0.0529269272873963</v>
       </c>
       <c r="E62" t="n">
-        <v>2.44156531400093e-08</v>
+        <v>1.915689707908422e-08</v>
       </c>
       <c r="F62" t="n">
-        <v>8.387805420057304e-08</v>
+        <v>6.58120117573727e-08</v>
       </c>
       <c r="G62" t="n">
-        <v>8.03136632528595e-07</v>
+        <v>6.301533578301284e-07</v>
       </c>
       <c r="H62" t="n">
-        <v>4.046500732564536e-13</v>
+        <v>3.174946728627559e-13</v>
       </c>
       <c r="I62" t="n">
-        <v>3.264183365754115e-12</v>
+        <v>2.561128486976305e-12</v>
       </c>
       <c r="J62" t="n">
-        <v>2.099298232265991e-05</v>
+        <v>1.647141689931778e-05</v>
       </c>
       <c r="K62" t="n">
-        <v>0.001603797865658028</v>
+        <v>0.001258364479208607</v>
       </c>
       <c r="L62" t="n">
-        <v>1.437120745301872e-09</v>
+        <v>1.127587046313777e-09</v>
       </c>
       <c r="M62" t="n">
-        <v>5.609017583776826e-12</v>
+        <v>4.40092148880951e-12</v>
       </c>
       <c r="N62" t="n">
-        <v>2.992452680495583e-07</v>
+        <v>2.347924410850381e-07</v>
       </c>
       <c r="O62" t="n">
-        <v>8.003734398202045e-05</v>
+        <v>6.279853143204681e-05</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0009987937495061793</v>
+        <v>0.0007836689419202332</v>
       </c>
       <c r="Q62" t="n">
-        <v>4.994505097807134e-12</v>
+        <v>3.918765538279444e-12</v>
       </c>
     </row>
     <row r="63">
@@ -3882,52 +3882,52 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.359144008824988</v>
+        <v>2.359146864645591</v>
       </c>
       <c r="C63" t="n">
-        <v>28.08681199999995</v>
+        <v>28.08684599999998</v>
       </c>
       <c r="D63" t="n">
-        <v>22008.39289516421</v>
+        <v>22008.41953704008</v>
       </c>
       <c r="E63" t="n">
-        <v>0.183912002744579</v>
+        <v>0.1839122253760439</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1123600080103309</v>
+        <v>0.1123601440257774</v>
       </c>
       <c r="G63" t="n">
-        <v>1.566712967070106</v>
+        <v>1.566714863627142</v>
       </c>
       <c r="H63" t="n">
-        <v>9.704534918690383e-07</v>
+        <v>9.704546666345742e-07</v>
       </c>
       <c r="I63" t="n">
-        <v>3.270054105503728e-05</v>
+        <v>3.270058064010649e-05</v>
       </c>
       <c r="J63" t="n">
-        <v>3.183214638376191</v>
+        <v>3.183218491761111</v>
       </c>
       <c r="K63" t="n">
-        <v>1177.804323094867</v>
+        <v>1177.805748865332</v>
       </c>
       <c r="L63" t="n">
-        <v>0.05871724409774536</v>
+        <v>0.05871731517688033</v>
       </c>
       <c r="M63" t="n">
-        <v>5.925277185275195e-06</v>
+        <v>5.92528435801607e-06</v>
       </c>
       <c r="N63" t="n">
-        <v>0.4526179697410969</v>
+        <v>0.45261851764988</v>
       </c>
       <c r="O63" t="n">
-        <v>36.4692785280897</v>
+        <v>36.46932267533827</v>
       </c>
       <c r="P63" t="n">
-        <v>344.0221249254078</v>
+        <v>344.0225413753864</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.851234428177743e-06</v>
+        <v>3.851239090222359e-06</v>
       </c>
     </row>
     <row r="64">
@@ -3992,52 +3992,52 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.078346354569883e-08</v>
+        <v>1.039173177284942e-08</v>
       </c>
       <c r="C65" t="n">
-        <v>2e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0001433035510162817</v>
+        <v>7.165177550814087e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>1.012512492709547e-09</v>
+        <v>5.062562463547735e-10</v>
       </c>
       <c r="F65" t="n">
-        <v>4.132692292856537e-09</v>
+        <v>2.066346146428268e-09</v>
       </c>
       <c r="G65" t="n">
-        <v>2.821453197967696e-08</v>
+        <v>1.410726598983848e-08</v>
       </c>
       <c r="H65" t="n">
-        <v>5.527117837199538e-14</v>
+        <v>2.763558918599769e-14</v>
       </c>
       <c r="I65" t="n">
-        <v>1.564433537827787e-13</v>
+        <v>7.822167689138935e-14</v>
       </c>
       <c r="J65" t="n">
-        <v>4.106322412445448e-07</v>
+        <v>2.053161206222724e-07</v>
       </c>
       <c r="K65" t="n">
-        <v>2.765549772330596e-05</v>
+        <v>1.382774886165298e-05</v>
       </c>
       <c r="L65" t="n">
-        <v>2.074056357485605e-10</v>
+        <v>1.037028178742803e-10</v>
       </c>
       <c r="M65" t="n">
-        <v>2.505513896164201e-13</v>
+        <v>1.252756948082101e-13</v>
       </c>
       <c r="N65" t="n">
-        <v>1.027722660686884e-08</v>
+        <v>5.13861330343442e-09</v>
       </c>
       <c r="O65" t="n">
-        <v>1.752464955639863e-06</v>
+        <v>8.762324778199313e-07</v>
       </c>
       <c r="P65" t="n">
-        <v>2.774085051978286e-05</v>
+        <v>1.387042525989143e-05</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.536748469419062e-13</v>
+        <v>7.683742347095312e-14</v>
       </c>
     </row>
     <row r="66">
@@ -4047,52 +4047,52 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.237845915368429e-05</v>
+        <v>8.475478486297507e-06</v>
       </c>
       <c r="C66" t="n">
-        <v>0.001626999999999427</v>
+        <v>0.001113999999999749</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04169926855875961</v>
+        <v>0.02855131233833073</v>
       </c>
       <c r="E66" t="n">
-        <v>2.1606480003591e-07</v>
+        <v>1.479386522679989e-07</v>
       </c>
       <c r="F66" t="n">
-        <v>3.469165570728547e-06</v>
+        <v>2.375322953775102e-06</v>
       </c>
       <c r="G66" t="n">
-        <v>4.247317737340171e-05</v>
+        <v>2.908120442161985e-05</v>
       </c>
       <c r="H66" t="n">
-        <v>1.644447291319515e-12</v>
+        <v>1.125946086373799e-12</v>
       </c>
       <c r="I66" t="n">
-        <v>1.963538736871606e-11</v>
+        <v>1.344426645897508e-11</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0001776272501633013</v>
+        <v>0.0001216206248813416</v>
       </c>
       <c r="K66" t="n">
-        <v>0.00648627982042294</v>
+        <v>0.004441128285158003</v>
       </c>
       <c r="L66" t="n">
-        <v>2.587545030143137e-08</v>
+        <v>1.771681108530928e-08</v>
       </c>
       <c r="M66" t="n">
-        <v>9.111758917998371e-11</v>
+        <v>6.23878268878394e-11</v>
       </c>
       <c r="N66" t="n">
-        <v>7.180504795497501e-06</v>
+        <v>4.916461181429152e-06</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0008795155543741594</v>
+        <v>0.0006022005701124386</v>
       </c>
       <c r="P66" t="n">
-        <v>0.02957326249522893</v>
+        <v>0.02024868741222446</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.64835378239711e-10</v>
+        <v>1.128620844247458e-10</v>
       </c>
     </row>
     <row r="67">
@@ -4102,52 +4102,52 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5.731423900306287</v>
+        <v>5.731430403177003</v>
       </c>
       <c r="C67" t="n">
-        <v>273.224163</v>
+        <v>273.2244729999999</v>
       </c>
       <c r="D67" t="n">
-        <v>52107.32502636188</v>
+        <v>52107.38414730703</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4384442640832184</v>
+        <v>0.4384447615418631</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5515468856004885</v>
+        <v>0.5515475113853116</v>
       </c>
       <c r="G67" t="n">
-        <v>6.497517027114454</v>
+        <v>6.497524399194052</v>
       </c>
       <c r="H67" t="n">
-        <v>3.044331380548024e-06</v>
+        <v>3.044334834644899e-06</v>
       </c>
       <c r="I67" t="n">
-        <v>6.5466907378595e-05</v>
+        <v>6.546698165731566e-05</v>
       </c>
       <c r="J67" t="n">
-        <v>41.1504238310805</v>
+        <v>41.15047052033098</v>
       </c>
       <c r="K67" t="n">
-        <v>10709.37562235163</v>
+        <v>10709.3877732039</v>
       </c>
       <c r="L67" t="n">
-        <v>0.1305050199894923</v>
+        <v>0.1305051680604233</v>
       </c>
       <c r="M67" t="n">
-        <v>4.569397156205646e-05</v>
+        <v>4.569402340641394e-05</v>
       </c>
       <c r="N67" t="n">
-        <v>1.833811010623025</v>
+        <v>1.833813091264088</v>
       </c>
       <c r="O67" t="n">
-        <v>224.0653789459661</v>
+        <v>224.065633170434</v>
       </c>
       <c r="P67" t="n">
-        <v>3509.603263238261</v>
+        <v>3509.607245232384</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.590318823035453e-05</v>
+        <v>2.590321762009905e-05</v>
       </c>
     </row>
     <row r="68">
@@ -4267,52 +4267,52 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1917054601211161</v>
+        <v>0.1916977606916121</v>
       </c>
       <c r="C70" t="n">
-        <v>18.624196</v>
+        <v>18.62344799999999</v>
       </c>
       <c r="D70" t="n">
-        <v>998.8005379063854</v>
+        <v>998.7604232725856</v>
       </c>
       <c r="E70" t="n">
-        <v>0.008353547645744686</v>
+        <v>0.008353212143818104</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04847385688245539</v>
+        <v>0.04847191003626948</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4790455779878082</v>
+        <v>0.4790263381724445</v>
       </c>
       <c r="H70" t="n">
-        <v>6.24854844157125e-08</v>
+        <v>6.248297482322629e-08</v>
       </c>
       <c r="I70" t="n">
-        <v>1.089649757914602e-06</v>
+        <v>1.089605994521061e-06</v>
       </c>
       <c r="J70" t="n">
-        <v>1.020530804831128</v>
+        <v>1.020489817448799</v>
       </c>
       <c r="K70" t="n">
-        <v>773.9194230017566</v>
+        <v>773.8883402248997</v>
       </c>
       <c r="L70" t="n">
-        <v>0.001392613358319966</v>
+        <v>0.001392557427057643</v>
       </c>
       <c r="M70" t="n">
-        <v>3.14109019957343e-06</v>
+        <v>3.1409640445722e-06</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1356275288139003</v>
+        <v>0.13562208163156</v>
       </c>
       <c r="O70" t="n">
-        <v>9.729526729965064</v>
+        <v>9.729135964855308</v>
       </c>
       <c r="P70" t="n">
-        <v>190.5618397800049</v>
+        <v>190.5541862815046</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.711603324078423e-06</v>
+        <v>1.71153458128349e-06</v>
       </c>
     </row>
     <row r="71">
@@ -4322,52 +4322,52 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02189631039739301</v>
+        <v>0.02189636853333207</v>
       </c>
       <c r="C71" t="n">
-        <v>4.519678</v>
+        <v>4.51969</v>
       </c>
       <c r="D71" t="n">
-        <v>160.184541493785</v>
+        <v>160.1849667927771</v>
       </c>
       <c r="E71" t="n">
-        <v>0.001433856371326473</v>
+        <v>0.001433860178296008</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004835323936347025</v>
+        <v>0.004835336774404789</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0482314595612971</v>
+        <v>0.04823158761854249</v>
       </c>
       <c r="H71" t="n">
-        <v>7.444875410776599e-08</v>
+        <v>7.444895177340707e-08</v>
       </c>
       <c r="I71" t="n">
-        <v>8.0354654027511e-07</v>
+        <v>8.035486737364946e-07</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3074738139093709</v>
+        <v>0.3074746302696884</v>
       </c>
       <c r="K71" t="n">
-        <v>33.69386037550598</v>
+        <v>33.69394983460561</v>
       </c>
       <c r="L71" t="n">
-        <v>4.81725432468455e-05</v>
+        <v>4.817267114766475e-05</v>
       </c>
       <c r="M71" t="n">
-        <v>5.39470542710002e-07</v>
+        <v>5.394719750347191e-07</v>
       </c>
       <c r="N71" t="n">
-        <v>0.02129701676571971</v>
+        <v>0.02129707331050038</v>
       </c>
       <c r="O71" t="n">
-        <v>1.497448786824527</v>
+        <v>1.497452762635513</v>
       </c>
       <c r="P71" t="n">
-        <v>53.07039841075987</v>
+        <v>53.07053931566083</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.834933920214375e-07</v>
+        <v>2.834941447123823e-07</v>
       </c>
     </row>
     <row r="72">
@@ -4377,52 +4377,52 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01300634184915852</v>
+        <v>0.01300676817937827</v>
       </c>
       <c r="C72" t="n">
-        <v>2.684675</v>
+        <v>2.684762999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>95.14913096349503</v>
+        <v>95.15224982277026</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0008517063281257865</v>
+        <v>0.0008517342459023794</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002872167727172699</v>
+        <v>0.002872261872929631</v>
       </c>
       <c r="G72" t="n">
-        <v>0.028649340439236</v>
+        <v>0.0286502795257022</v>
       </c>
       <c r="H72" t="n">
-        <v>4.422233374463108e-08</v>
+        <v>4.422378329266557e-08</v>
       </c>
       <c r="I72" t="n">
-        <v>4.773042035324377e-07</v>
+        <v>4.773198489159239e-07</v>
       </c>
       <c r="J72" t="n">
-        <v>0.182638511273843</v>
+        <v>0.1826444979161711</v>
       </c>
       <c r="K72" t="n">
-        <v>20.01405069202087</v>
+        <v>20.01470672541817</v>
       </c>
       <c r="L72" t="n">
-        <v>2.861434432745539e-05</v>
+        <v>2.861528226679658e-05</v>
       </c>
       <c r="M72" t="n">
-        <v>3.204438633128234e-07</v>
+        <v>3.20454367027415e-07</v>
       </c>
       <c r="N72" t="n">
-        <v>0.01265036325276017</v>
+        <v>0.01265077791448505</v>
       </c>
       <c r="O72" t="n">
-        <v>0.8894800297207319</v>
+        <v>0.8895091856679564</v>
       </c>
       <c r="P72" t="n">
-        <v>31.52365541381637</v>
+        <v>31.52468871642336</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.68394213531396e-07</v>
+        <v>1.683997332649915e-07</v>
       </c>
     </row>
     <row r="73">
@@ -4542,52 +4542,52 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1617197976957787</v>
+        <v>0.1617168739414164</v>
       </c>
       <c r="C75" t="n">
-        <v>17.25746099999999</v>
+        <v>17.25714899999999</v>
       </c>
       <c r="D75" t="n">
-        <v>1029.547803640032</v>
+        <v>1029.529190304343</v>
       </c>
       <c r="E75" t="n">
-        <v>0.009109372050602051</v>
+        <v>0.00910920736101766</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02184466657938107</v>
+        <v>0.02184427164666341</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2276020584954667</v>
+        <v>0.227597943646692</v>
       </c>
       <c r="H75" t="n">
-        <v>7.119401278374987e-08</v>
+        <v>7.119272565744618e-08</v>
       </c>
       <c r="I75" t="n">
-        <v>1.162708250977528e-06</v>
+        <v>1.162687230215882e-06</v>
       </c>
       <c r="J75" t="n">
-        <v>1.337404689990332</v>
+        <v>1.337380510867848</v>
       </c>
       <c r="K75" t="n">
-        <v>141.1016739257601</v>
+        <v>141.0991229292802</v>
       </c>
       <c r="L75" t="n">
-        <v>0.001330805514074768</v>
+        <v>0.00133078145425969</v>
       </c>
       <c r="M75" t="n">
-        <v>1.721926508082066e-06</v>
+        <v>1.721895377136992e-06</v>
       </c>
       <c r="N75" t="n">
-        <v>0.07546756100339928</v>
+        <v>0.07546619661503227</v>
       </c>
       <c r="O75" t="n">
-        <v>6.88362928191887</v>
+        <v>6.883504831842702</v>
       </c>
       <c r="P75" t="n">
-        <v>200.6470999352735</v>
+        <v>200.6434724088849</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.239957593349716e-06</v>
+        <v>1.239935175986633e-06</v>
       </c>
     </row>
     <row r="76">
@@ -4762,52 +4762,52 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5.202960916939312e-05</v>
+        <v>3.436937207284382e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>0.002406999999999998</v>
+        <v>0.001589999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4679547839728759</v>
+        <v>0.3091184489060544</v>
       </c>
       <c r="E79" t="n">
-        <v>4.170039453661294e-06</v>
+        <v>2.754616838937042e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>5.179732492556613e-06</v>
+        <v>3.421593129690493e-06</v>
       </c>
       <c r="G79" t="n">
-        <v>5.164835565220898e-05</v>
+        <v>3.411752616826436e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>3.380387739756732e-11</v>
+        <v>2.232993978484922e-11</v>
       </c>
       <c r="I79" t="n">
-        <v>7.05782269036069e-10</v>
+        <v>4.662209421551101e-10</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0001906676877526888</v>
+        <v>0.0001259499890015685</v>
       </c>
       <c r="K79" t="n">
-        <v>0.03874859445389507</v>
+        <v>0.02559628798574706</v>
       </c>
       <c r="L79" t="n">
-        <v>1.066605901026212e-06</v>
+        <v>7.045714094855331e-07</v>
       </c>
       <c r="M79" t="n">
-        <v>3.640696453308839e-10</v>
+        <v>2.404946971649795e-10</v>
       </c>
       <c r="N79" t="n">
-        <v>1.845505559351743e-05</v>
+        <v>1.219091748803187e-05</v>
       </c>
       <c r="O79" t="n">
-        <v>0.002476465966385123</v>
+        <v>0.001635887364583443</v>
       </c>
       <c r="P79" t="n">
-        <v>0.02796188501853164</v>
+        <v>0.01847087543808281</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.895390664275e-10</v>
+        <v>1.252044518569693e-10</v>
       </c>
     </row>
     <row r="80">
@@ -4872,52 +4872,52 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.308211871823979</v>
+        <v>2.00664573485627</v>
       </c>
       <c r="C81" t="n">
-        <v>303.386768</v>
+        <v>263.7495160000001</v>
       </c>
       <c r="D81" t="n">
-        <v>7775.664607259095</v>
+        <v>6759.779901616927</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04028961362107206</v>
+        <v>0.03502580604433205</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6468954702892323</v>
+        <v>0.5623790658904988</v>
       </c>
       <c r="G81" t="n">
-        <v>7.91997542102742</v>
+        <v>6.885236616607745</v>
       </c>
       <c r="H81" t="n">
-        <v>3.066401652488971e-07</v>
+        <v>2.665778593565974e-07</v>
       </c>
       <c r="I81" t="n">
-        <v>3.661411623985539e-06</v>
+        <v>3.183050961876361e-06</v>
       </c>
       <c r="J81" t="n">
-        <v>33.12216185358977</v>
+        <v>28.79477643454103</v>
       </c>
       <c r="K81" t="n">
-        <v>1209.496909073405</v>
+        <v>1051.47705179946</v>
       </c>
       <c r="L81" t="n">
-        <v>0.004824996458204435</v>
+        <v>0.004194614316709866</v>
       </c>
       <c r="M81" t="n">
-        <v>1.699070122266537e-05</v>
+        <v>1.477087894610684e-05</v>
       </c>
       <c r="N81" t="n">
-        <v>1.33894907345744</v>
+        <v>1.164016388720844</v>
       </c>
       <c r="O81" t="n">
-        <v>164.0033075890592</v>
+        <v>142.5763993735333</v>
       </c>
       <c r="P81" t="n">
-        <v>5514.527675258937</v>
+        <v>4794.058801266344</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.073686088272616e-05</v>
+        <v>2.67211132331861e-05</v>
       </c>
     </row>
     <row r="82">
@@ -4982,52 +4982,52 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4815466485660505</v>
+        <v>0.4815189592974071</v>
       </c>
       <c r="C83" t="n">
-        <v>48.57332299999999</v>
+        <v>48.57052999999998</v>
       </c>
       <c r="D83" t="n">
-        <v>3459.461297435505</v>
+        <v>3459.262375994537</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02661341310176302</v>
+        <v>0.02661188281192073</v>
       </c>
       <c r="F83" t="n">
-        <v>0.08896631180393057</v>
+        <v>0.08896119617886064</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9087828444035749</v>
+        <v>0.9087305887552548</v>
       </c>
       <c r="H83" t="n">
-        <v>7.104764051463948e-07</v>
+        <v>7.104355522568452e-07</v>
       </c>
       <c r="I83" t="n">
-        <v>3.91708717816489e-06</v>
+        <v>3.916861942916138e-06</v>
       </c>
       <c r="J83" t="n">
-        <v>8.59881240301959</v>
+        <v>8.598317965300318</v>
       </c>
       <c r="K83" t="n">
-        <v>1337.142472471109</v>
+        <v>1337.065585844975</v>
       </c>
       <c r="L83" t="n">
-        <v>0.005597135372273548</v>
+        <v>0.005596813533080154</v>
       </c>
       <c r="M83" t="n">
-        <v>6.226077979553286e-06</v>
+        <v>6.225719975720671e-06</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2863532086932273</v>
+        <v>0.2863367431837154</v>
       </c>
       <c r="O83" t="n">
-        <v>46.02763676948312</v>
+        <v>46.02499014821949</v>
       </c>
       <c r="P83" t="n">
-        <v>651.8005772430658</v>
+        <v>651.7630982546046</v>
       </c>
       <c r="Q83" t="n">
-        <v>4.7231502018682e-06</v>
+        <v>4.722878617432566e-06</v>
       </c>
     </row>
     <row r="84">
@@ -5037,52 +5037,52 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7.665288562589192</v>
+        <v>7.665288352819169</v>
       </c>
       <c r="C84" t="n">
-        <v>365.413916</v>
+        <v>365.413906</v>
       </c>
       <c r="D84" t="n">
-        <v>69689.08416115318</v>
+        <v>69689.08225402593</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5863816498776746</v>
+        <v>0.5863816338306217</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7376467187672497</v>
+        <v>0.7376466985806426</v>
       </c>
       <c r="G84" t="n">
-        <v>8.689872502801169</v>
+        <v>8.68987226499215</v>
       </c>
       <c r="H84" t="n">
-        <v>4.071532470456213e-06</v>
+        <v>4.071532359033734e-06</v>
       </c>
       <c r="I84" t="n">
-        <v>8.75563812912837e-05</v>
+        <v>8.755637889519594e-05</v>
       </c>
       <c r="J84" t="n">
-        <v>55.0351672856065</v>
+        <v>55.03516577950165</v>
       </c>
       <c r="K84" t="n">
-        <v>14322.87262264736</v>
+        <v>14322.87223068439</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1745392863076262</v>
+        <v>0.1745392815311446</v>
       </c>
       <c r="M84" t="n">
-        <v>6.111177321488814e-05</v>
+        <v>6.111177154248952e-05</v>
       </c>
       <c r="N84" t="n">
-        <v>2.452565158359275</v>
+        <v>2.452565091241822</v>
       </c>
       <c r="O84" t="n">
-        <v>299.6682528428836</v>
+        <v>299.6682446420944</v>
       </c>
       <c r="P84" t="n">
-        <v>4693.793762399665</v>
+        <v>4693.793633948242</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.464329561561855e-05</v>
+        <v>3.464329466756228e-05</v>
       </c>
     </row>
     <row r="85">
@@ -5092,52 +5092,52 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.0161030130441e-05</v>
+        <v>6.164121425285014e-06</v>
       </c>
       <c r="C85" t="n">
-        <v>0.000572</v>
+        <v>0.000347</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06779839340292962</v>
+        <v>0.04112944494898002</v>
       </c>
       <c r="E85" t="n">
-        <v>5.504450653606792e-07</v>
+        <v>3.339238420981742e-07</v>
       </c>
       <c r="F85" t="n">
-        <v>1.041059292471064e-06</v>
+        <v>6.315517036494043e-07</v>
       </c>
       <c r="G85" t="n">
-        <v>1.007702841253095e-05</v>
+        <v>6.113162341168253e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>7.103053658506475e-12</v>
+        <v>4.309020313814242e-12</v>
       </c>
       <c r="I85" t="n">
-        <v>9.396334203638025e-11</v>
+        <v>5.700223721437753e-11</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0001589451903976723</v>
+        <v>9.642304382516135e-05</v>
       </c>
       <c r="K85" t="n">
-        <v>0.007413932945947635</v>
+        <v>0.004497613168258442</v>
       </c>
       <c r="L85" t="n">
-        <v>2.087501682847996e-07</v>
+        <v>1.266369027881564e-07</v>
       </c>
       <c r="M85" t="n">
-        <v>7.566176286631839e-11</v>
+        <v>4.589970579477705e-11</v>
       </c>
       <c r="N85" t="n">
-        <v>2.85049382070603e-06</v>
+        <v>1.729233139484252e-06</v>
       </c>
       <c r="O85" t="n">
-        <v>0.002536862617859504</v>
+        <v>0.001538970853841342</v>
       </c>
       <c r="P85" t="n">
-        <v>0.009428293189880237</v>
+        <v>0.005719611428126646</v>
       </c>
       <c r="Q85" t="n">
-        <v>8.662133769619467e-11</v>
+        <v>5.254825905695725e-11</v>
       </c>
     </row>
     <row r="86">
@@ -5147,52 +5147,52 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.906538948255139</v>
+        <v>4.906538933276436</v>
       </c>
       <c r="C86" t="n">
-        <v>982.7031309999998</v>
+        <v>982.7031279999997</v>
       </c>
       <c r="D86" t="n">
-        <v>22419.28010003127</v>
+        <v>22419.2800315896</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1441452480592444</v>
+        <v>0.1441452476191972</v>
       </c>
       <c r="F86" t="n">
-        <v>1.724435071239676</v>
+        <v>1.724435065975314</v>
       </c>
       <c r="G86" t="n">
-        <v>16.87788166087583</v>
+        <v>16.87788160935096</v>
       </c>
       <c r="H86" t="n">
-        <v>3.78092259827435e-06</v>
+        <v>3.780922586731934e-06</v>
       </c>
       <c r="I86" t="n">
-        <v>2.110057290564399e-05</v>
+        <v>2.110057284122807e-05</v>
       </c>
       <c r="J86" t="n">
-        <v>61.6520264481366</v>
+        <v>61.65202625992504</v>
       </c>
       <c r="K86" t="n">
-        <v>12102.33424182777</v>
+        <v>12102.33420488171</v>
       </c>
       <c r="L86" t="n">
-        <v>0.01406846463731514</v>
+        <v>0.01406846459436687</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0001634212777555385</v>
+        <v>0.0001634212772566453</v>
       </c>
       <c r="N86" t="n">
-        <v>4.491230420545316</v>
+        <v>4.491230406834469</v>
       </c>
       <c r="O86" t="n">
-        <v>405.2064597143016</v>
+        <v>405.2064584772857</v>
       </c>
       <c r="P86" t="n">
-        <v>7947.869849983216</v>
+        <v>7947.869825719927</v>
       </c>
       <c r="Q86" t="n">
-        <v>8.548718102996915e-05</v>
+        <v>8.548718076899354e-05</v>
       </c>
     </row>
     <row r="87">
@@ -5257,52 +5257,52 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9.549067628634092e-08</v>
+        <v>7.639254102907273e-08</v>
       </c>
       <c r="C88" t="n">
-        <v>5e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0008376133799976745</v>
+        <v>0.0006700907039981394</v>
       </c>
       <c r="E88" t="n">
-        <v>7.035797619710456e-09</v>
+        <v>5.628638095768364e-09</v>
       </c>
       <c r="F88" t="n">
-        <v>1.035319121736809e-08</v>
+        <v>8.282552973894475e-09</v>
       </c>
       <c r="G88" t="n">
-        <v>1.189676893639408e-07</v>
+        <v>9.51741514911526e-08</v>
       </c>
       <c r="H88" t="n">
-        <v>4.945368226673347e-14</v>
+        <v>3.956294581338676e-14</v>
       </c>
       <c r="I88" t="n">
-        <v>1.048435368039072e-12</v>
+        <v>8.387482944312578e-13</v>
       </c>
       <c r="J88" t="n">
-        <v>6.737372490201749e-07</v>
+        <v>5.389897992161398e-07</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0002687526204745308</v>
+        <v>0.0002150020963796246</v>
       </c>
       <c r="L88" t="n">
-        <v>2.048445898150851e-09</v>
+        <v>1.63875671852068e-09</v>
       </c>
       <c r="M88" t="n">
-        <v>8.508100707239333e-13</v>
+        <v>6.806480565791465e-13</v>
       </c>
       <c r="N88" t="n">
-        <v>3.379179970412205e-08</v>
+        <v>2.703343976329763e-08</v>
       </c>
       <c r="O88" t="n">
-        <v>3.750986922744343e-06</v>
+        <v>3.000789538195475e-06</v>
       </c>
       <c r="P88" t="n">
-        <v>6.211269464972532e-05</v>
+        <v>4.969015571978024e-05</v>
       </c>
       <c r="Q88" t="n">
-        <v>4.714601619461132e-13</v>
+        <v>3.771681295568906e-13</v>
       </c>
     </row>
     <row r="89">
@@ -5367,52 +5367,52 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9.78160445172081e-09</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>5.077293154859112e-05</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>4.112060823653289e-10</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2.384370890182003e-09</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>2.438674070369804e-08</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>3.039756023428834e-15</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>5.348690210258633e-14</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>5.393683525961629e-08</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0001322089120919499</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>6.803153873845044e-11</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>1.875806412962806e-13</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>7.085831289734335e-09</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>3.992178523384298e-07</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.022565305783589e-05</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>9.285601367688916e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -5422,52 +5422,52 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5.244250579245317e-07</v>
+        <v>3.98563044022644e-07</v>
       </c>
       <c r="C91" t="n">
-        <v>2.5e-05</v>
+        <v>1.9e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>0.004767818158378045</v>
+        <v>0.003623541800367314</v>
       </c>
       <c r="E91" t="n">
-        <v>4.011763264905836e-08</v>
+        <v>3.048940081328435e-08</v>
       </c>
       <c r="F91" t="n">
-        <v>5.046651799977222e-08</v>
+        <v>3.835455367982688e-08</v>
       </c>
       <c r="G91" t="n">
-        <v>5.945225484243163e-07</v>
+        <v>4.518371368024803e-07</v>
       </c>
       <c r="H91" t="n">
-        <v>2.785561997080793e-13</v>
+        <v>2.117027117781402e-13</v>
       </c>
       <c r="I91" t="n">
-        <v>5.990219409931602e-12</v>
+        <v>4.552566751548017e-12</v>
       </c>
       <c r="J91" t="n">
-        <v>3.765262136705714e-06</v>
+        <v>2.861599223896342e-06</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0009799074416371818</v>
+        <v>0.000744729655644258</v>
       </c>
       <c r="L91" t="n">
-        <v>1.194120411574762e-08</v>
+        <v>9.075315127968191e-09</v>
       </c>
       <c r="M91" t="n">
-        <v>4.18099657258867e-12</v>
+        <v>3.177557395167389e-12</v>
       </c>
       <c r="N91" t="n">
-        <v>1.677936342166614e-07</v>
+        <v>1.275231620046627e-07</v>
       </c>
       <c r="O91" t="n">
-        <v>2.050197322280442e-05</v>
+        <v>1.558149964933136e-05</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0003211285583879944</v>
+        <v>0.0002440577043748757</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.370140688321414e-12</v>
+        <v>1.801306923124275e-12</v>
       </c>
     </row>
     <row r="92">
@@ -5642,52 +5642,52 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5.507960344860502</v>
+        <v>7.151285011212679</v>
       </c>
       <c r="C95" t="n">
-        <v>454.059323</v>
+        <v>589.529958</v>
       </c>
       <c r="D95" t="n">
-        <v>59419.56070712068</v>
+        <v>77147.65307890683</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3268893166800109</v>
+        <v>0.4244182100694704</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7584929900419026</v>
+        <v>0.9847927746716418</v>
       </c>
       <c r="G95" t="n">
-        <v>8.024049552711704</v>
+        <v>10.41806071626471</v>
       </c>
       <c r="H95" t="n">
-        <v>1.892248802986798e-06</v>
+        <v>2.456809718122134e-06</v>
       </c>
       <c r="I95" t="n">
-        <v>3.50818508044698e-05</v>
+        <v>4.554867829753017e-05</v>
       </c>
       <c r="J95" t="n">
-        <v>37.6887078014308</v>
+        <v>48.93330276857188</v>
       </c>
       <c r="K95" t="n">
-        <v>9324.188529242318</v>
+        <v>12106.10198621184</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09677632768648858</v>
+        <v>0.1256499789927446</v>
       </c>
       <c r="M95" t="n">
-        <v>4.590229749697834e-05</v>
+        <v>5.959745377917754e-05</v>
       </c>
       <c r="N95" t="n">
-        <v>2.530326126713188</v>
+        <v>3.285260272494236</v>
       </c>
       <c r="O95" t="n">
-        <v>321.3301953056446</v>
+        <v>417.2004999061949</v>
       </c>
       <c r="P95" t="n">
-        <v>6327.630927093486</v>
+        <v>8215.507987023368</v>
       </c>
       <c r="Q95" t="n">
-        <v>4.38169238469082e-05</v>
+        <v>5.688989954988103e-05</v>
       </c>
     </row>
     <row r="96">
@@ -5862,52 +5862,52 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.4703868190524039</v>
+        <v>0.4672861243916239</v>
       </c>
       <c r="C99" t="n">
-        <v>38.67867599999999</v>
+        <v>38.42371399999998</v>
       </c>
       <c r="D99" t="n">
-        <v>5072.268386808689</v>
+        <v>5038.833020705734</v>
       </c>
       <c r="E99" t="n">
-        <v>0.02768482875894259</v>
+        <v>0.02750233597376976</v>
       </c>
       <c r="F99" t="n">
-        <v>0.06517984689166474</v>
+        <v>0.06475019453946962</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6848261484719185</v>
+        <v>0.6803119131742392</v>
       </c>
       <c r="H99" t="n">
-        <v>1.672839997483654e-07</v>
+        <v>1.661812974959966e-07</v>
       </c>
       <c r="I99" t="n">
-        <v>3.011640144049301e-06</v>
+        <v>2.991788022058178e-06</v>
       </c>
       <c r="J99" t="n">
-        <v>3.206502369324374</v>
+        <v>3.18536575500263</v>
       </c>
       <c r="K99" t="n">
-        <v>799.4821410224877</v>
+        <v>794.2121166390424</v>
       </c>
       <c r="L99" t="n">
-        <v>0.008583851881703844</v>
+        <v>0.008527268868276417</v>
       </c>
       <c r="M99" t="n">
-        <v>3.912882971106705e-06</v>
+        <v>3.887090038895703e-06</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2161486932243978</v>
+        <v>0.2147238848074323</v>
       </c>
       <c r="O99" t="n">
-        <v>27.2266276007637</v>
+        <v>27.04715518484268</v>
       </c>
       <c r="P99" t="n">
-        <v>540.6239104137296</v>
+        <v>537.0602270692711</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.741343128775007e-06</v>
+        <v>3.716680952468901e-06</v>
       </c>
     </row>
     <row r="100">
@@ -5917,52 +5917,52 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3.212430888296173e-07</v>
+        <v>1.873918018172767e-07</v>
       </c>
       <c r="C100" t="n">
-        <v>4.800000000000001e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002437561966152763</v>
+        <v>0.001421911146922445</v>
       </c>
       <c r="E100" t="n">
-        <v>2.280483986416542e-08</v>
+        <v>1.330282325409649e-08</v>
       </c>
       <c r="F100" t="n">
-        <v>8.282467062864703e-08</v>
+        <v>4.831439120004408e-08</v>
       </c>
       <c r="G100" t="n">
-        <v>7.427816977789297e-07</v>
+        <v>4.332893237043755e-07</v>
       </c>
       <c r="H100" t="n">
-        <v>9.463508854724248e-13</v>
+        <v>5.52038016525581e-13</v>
       </c>
       <c r="I100" t="n">
-        <v>3.098205260264977e-12</v>
+        <v>1.807286401821236e-12</v>
       </c>
       <c r="J100" t="n">
-        <v>4.949698418967478e-06</v>
+        <v>2.887324077731028e-06</v>
       </c>
       <c r="K100" t="n">
-        <v>0.00141168054919401</v>
+        <v>0.0008234803203631723</v>
       </c>
       <c r="L100" t="n">
-        <v>1.449029870336138e-09</v>
+        <v>8.452674243627472e-10</v>
       </c>
       <c r="M100" t="n">
-        <v>7.346833636801048e-12</v>
+        <v>4.285652954800609e-12</v>
       </c>
       <c r="N100" t="n">
-        <v>2.765695877288728e-07</v>
+        <v>1.61332259508509e-07</v>
       </c>
       <c r="O100" t="n">
-        <v>4.834824995405853e-05</v>
+        <v>2.820314580653413e-05</v>
       </c>
       <c r="P100" t="n">
-        <v>0.0006661395749099547</v>
+        <v>0.0003885814186974734</v>
       </c>
       <c r="Q100" t="n">
-        <v>4.104723351646727e-12</v>
+        <v>2.394421955127257e-12</v>
       </c>
     </row>
     <row r="101">
@@ -5972,52 +5972,52 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3.212430888296173e-07</v>
+        <v>1.873918018172767e-07</v>
       </c>
       <c r="C101" t="n">
-        <v>4.800000000000001e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002437561966152763</v>
+        <v>0.001421911146922445</v>
       </c>
       <c r="E101" t="n">
-        <v>2.280483986416542e-08</v>
+        <v>1.330282325409649e-08</v>
       </c>
       <c r="F101" t="n">
-        <v>8.282467062864703e-08</v>
+        <v>4.831439120004408e-08</v>
       </c>
       <c r="G101" t="n">
-        <v>7.427816977789297e-07</v>
+        <v>4.332893237043755e-07</v>
       </c>
       <c r="H101" t="n">
-        <v>9.463508854724248e-13</v>
+        <v>5.52038016525581e-13</v>
       </c>
       <c r="I101" t="n">
-        <v>3.098205260264977e-12</v>
+        <v>1.807286401821236e-12</v>
       </c>
       <c r="J101" t="n">
-        <v>4.949698418967478e-06</v>
+        <v>2.887324077731028e-06</v>
       </c>
       <c r="K101" t="n">
-        <v>0.00141168054919401</v>
+        <v>0.0008234803203631723</v>
       </c>
       <c r="L101" t="n">
-        <v>1.449029870336138e-09</v>
+        <v>8.452674243627472e-10</v>
       </c>
       <c r="M101" t="n">
-        <v>7.346833636801048e-12</v>
+        <v>4.285652954800609e-12</v>
       </c>
       <c r="N101" t="n">
-        <v>2.765695877288728e-07</v>
+        <v>1.61332259508509e-07</v>
       </c>
       <c r="O101" t="n">
-        <v>4.834824995405853e-05</v>
+        <v>2.820314580653413e-05</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0006661395749099547</v>
+        <v>0.0003885814186974734</v>
       </c>
       <c r="Q101" t="n">
-        <v>4.104723351646727e-12</v>
+        <v>2.394421955127257e-12</v>
       </c>
     </row>
     <row r="102">
@@ -6027,52 +6027,52 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.05269213188503024</v>
+        <v>0.05268379964241374</v>
       </c>
       <c r="C102" t="n">
-        <v>7.873235</v>
+        <v>7.871990000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>399.8228788871405</v>
+        <v>399.7596546236435</v>
       </c>
       <c r="E102" t="n">
-        <v>0.003740580487248799</v>
+        <v>0.003739988986714823</v>
       </c>
       <c r="F102" t="n">
-        <v>0.01358537699285282</v>
+        <v>0.0135832287279584</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1218353095898436</v>
+        <v>0.1218160436895574</v>
       </c>
       <c r="H102" t="n">
-        <v>1.552258940371351e-07</v>
+        <v>1.552013480610432e-07</v>
       </c>
       <c r="I102" t="n">
-        <v>5.08185376922965e-07</v>
+        <v>5.081050172240269e-07</v>
       </c>
       <c r="J102" t="n">
-        <v>0.8118778923262374</v>
+        <v>0.8117495095234957</v>
       </c>
       <c r="K102" t="n">
-        <v>231.5519314319479</v>
+        <v>231.5153159677032</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0002376781810661655</v>
+        <v>0.0002376405968539037</v>
       </c>
       <c r="M102" t="n">
-        <v>1.205069744342485e-06</v>
+        <v>1.204879185845031e-06</v>
       </c>
       <c r="N102" t="n">
-        <v>0.04536452829255273</v>
+        <v>0.04535735476887102</v>
       </c>
       <c r="O102" t="n">
-        <v>7.930356952646707</v>
+        <v>7.929102919913525</v>
       </c>
       <c r="P102" t="n">
-        <v>109.2640295013787</v>
+        <v>109.2467515061545</v>
       </c>
       <c r="Q102" t="n">
-        <v>6.732802407812981e-07</v>
+        <v>6.731737745193649e-07</v>
       </c>
     </row>
     <row r="103">
@@ -6082,52 +6082,52 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.07045417759387479</v>
+        <v>0.0704549472387751</v>
       </c>
       <c r="C103" t="n">
-        <v>10.527232</v>
+        <v>10.527347</v>
       </c>
       <c r="D103" t="n">
-        <v>534.5995902513808</v>
+        <v>534.6054302435914</v>
       </c>
       <c r="E103" t="n">
-        <v>0.005001496666102454</v>
+        <v>0.005001551302697962</v>
       </c>
       <c r="F103" t="n">
-        <v>0.01816488589648652</v>
+        <v>0.01816508433059323</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1629049012056808</v>
+        <v>0.1629066807868317</v>
       </c>
       <c r="H103" t="n">
-        <v>2.075511525994509e-07</v>
+        <v>2.075534198984474e-07</v>
       </c>
       <c r="I103" t="n">
-        <v>6.794901158006206e-07</v>
+        <v>6.794975385840566e-07</v>
       </c>
       <c r="J103" t="n">
-        <v>1.085554658052163</v>
+        <v>1.085566516704625</v>
       </c>
       <c r="K103" t="n">
-        <v>309.6060135677658</v>
+        <v>309.6093957190815</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0003177973670824676</v>
+        <v>0.000317800838716532</v>
       </c>
       <c r="M103" t="n">
-        <v>1.611287961666841e-06</v>
+        <v>1.611305563455762e-06</v>
       </c>
       <c r="N103" t="n">
-        <v>0.06065650446179575</v>
+        <v>0.06065716707643302</v>
       </c>
       <c r="O103" t="n">
-        <v>10.60360925125757</v>
+        <v>10.60372508560642</v>
       </c>
       <c r="P103" t="n">
-        <v>146.0959551970515</v>
+        <v>146.0975511564497</v>
       </c>
       <c r="Q103" t="n">
-        <v>9.002369795542223e-07</v>
+        <v>9.002468137872523e-07</v>
       </c>
     </row>
     <row r="104">
@@ -6137,52 +6137,52 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.01538041637390526</v>
+        <v>0.01538049668467747</v>
       </c>
       <c r="C104" t="n">
-        <v>2.298135</v>
+        <v>2.298147</v>
       </c>
       <c r="D104" t="n">
-        <v>116.7051347725933</v>
+        <v>116.7057441630848</v>
       </c>
       <c r="E104" t="n">
-        <v>0.001091845847109037</v>
+        <v>0.001091851548319003</v>
       </c>
       <c r="F104" t="n">
-        <v>0.003965464050732618</v>
+        <v>0.003965484756900276</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03556276285469125</v>
+        <v>0.0355629485501157</v>
       </c>
       <c r="H104" t="n">
-        <v>4.530921025385772e-08</v>
+        <v>4.530944684157909e-08</v>
       </c>
       <c r="I104" t="n">
-        <v>1.483352905374802e-07</v>
+        <v>1.483360650887953e-07</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2369807328348713</v>
+        <v>0.236981970259476</v>
       </c>
       <c r="K104" t="n">
-        <v>67.58817664420782</v>
+        <v>67.58852956434514</v>
       </c>
       <c r="L104" t="n">
-        <v>6.937638043885293e-05</v>
+        <v>6.937674269632052e-05</v>
       </c>
       <c r="M104" t="n">
-        <v>3.517503233314535e-07</v>
+        <v>3.517521600398628e-07</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01324154686448527</v>
+        <v>0.0132416160068822</v>
       </c>
       <c r="O104" t="n">
-        <v>2.314808446003547</v>
+        <v>2.314820533066036</v>
       </c>
       <c r="P104" t="n">
-        <v>31.89330566636851</v>
+        <v>31.89347220126223</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.965251749945135e-07</v>
+        <v>1.965262011753514e-07</v>
       </c>
     </row>
     <row r="105">
@@ -6192,52 +6192,52 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.003506261233545663</v>
+        <v>0.003506241155852609</v>
       </c>
       <c r="C105" t="n">
-        <v>0.523904</v>
+        <v>0.5239009999999998</v>
       </c>
       <c r="D105" t="n">
-        <v>26.60517633990202</v>
+        <v>26.60502399227912</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0002489072255040774</v>
+        <v>0.0002489058002015858</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0009040036716881393</v>
+        <v>0.0009039984951462245</v>
       </c>
       <c r="G105" t="n">
-        <v>0.008107214637357757</v>
+        <v>0.008107168213501641</v>
       </c>
       <c r="H105" t="n">
-        <v>1.032910446463636e-08</v>
+        <v>1.032904531770601e-08</v>
       </c>
       <c r="I105" t="n">
-        <v>3.381587768070546e-08</v>
+        <v>3.381568404287668e-08</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05402430834355702</v>
+        <v>0.05402399898740581</v>
       </c>
       <c r="K105" t="n">
-        <v>15.40802263426955</v>
+        <v>15.40793440423522</v>
       </c>
       <c r="L105" t="n">
-        <v>1.581567802476217e-05</v>
+        <v>1.581558746039527e-05</v>
       </c>
       <c r="M105" t="n">
-        <v>8.018824020113781e-08</v>
+        <v>8.018778102403548e-08</v>
       </c>
       <c r="N105" t="n">
-        <v>0.003018664860198069</v>
+        <v>0.003018647574598835</v>
       </c>
       <c r="O105" t="n">
-        <v>0.5277050321652308</v>
+        <v>0.5277020103996084</v>
       </c>
       <c r="P105" t="n">
-        <v>7.270691413617183</v>
+        <v>7.270649779893748</v>
       </c>
       <c r="Q105" t="n">
-        <v>4.48016871421068e-08</v>
+        <v>4.48014305968973e-08</v>
       </c>
     </row>
     <row r="106">
@@ -6247,52 +6247,52 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.212430888296173e-07</v>
+        <v>1.873918018172767e-07</v>
       </c>
       <c r="C106" t="n">
-        <v>4.800000000000001e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>0.002437561966152763</v>
+        <v>0.001421911146922445</v>
       </c>
       <c r="E106" t="n">
-        <v>2.280483986416542e-08</v>
+        <v>1.330282325409649e-08</v>
       </c>
       <c r="F106" t="n">
-        <v>8.282467062864703e-08</v>
+        <v>4.831439120004408e-08</v>
       </c>
       <c r="G106" t="n">
-        <v>7.427816977789297e-07</v>
+        <v>4.332893237043755e-07</v>
       </c>
       <c r="H106" t="n">
-        <v>9.463508854724248e-13</v>
+        <v>5.52038016525581e-13</v>
       </c>
       <c r="I106" t="n">
-        <v>3.098205260264977e-12</v>
+        <v>1.807286401821236e-12</v>
       </c>
       <c r="J106" t="n">
-        <v>4.949698418967478e-06</v>
+        <v>2.887324077731028e-06</v>
       </c>
       <c r="K106" t="n">
-        <v>0.00141168054919401</v>
+        <v>0.0008234803203631723</v>
       </c>
       <c r="L106" t="n">
-        <v>1.449029870336138e-09</v>
+        <v>8.452674243627472e-10</v>
       </c>
       <c r="M106" t="n">
-        <v>7.346833636801048e-12</v>
+        <v>4.285652954800609e-12</v>
       </c>
       <c r="N106" t="n">
-        <v>2.765695877288728e-07</v>
+        <v>1.61332259508509e-07</v>
       </c>
       <c r="O106" t="n">
-        <v>4.834824995405853e-05</v>
+        <v>2.820314580653413e-05</v>
       </c>
       <c r="P106" t="n">
-        <v>0.0006661395749099547</v>
+        <v>0.0003885814186974734</v>
       </c>
       <c r="Q106" t="n">
-        <v>4.104723351646727e-12</v>
+        <v>2.394421955127257e-12</v>
       </c>
     </row>
     <row r="107">
@@ -6302,52 +6302,52 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.212430888296173e-07</v>
+        <v>1.873918018172767e-07</v>
       </c>
       <c r="C107" t="n">
-        <v>4.800000000000001e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>0.002437561966152763</v>
+        <v>0.001421911146922445</v>
       </c>
       <c r="E107" t="n">
-        <v>2.280483986416542e-08</v>
+        <v>1.330282325409649e-08</v>
       </c>
       <c r="F107" t="n">
-        <v>8.282467062864703e-08</v>
+        <v>4.831439120004408e-08</v>
       </c>
       <c r="G107" t="n">
-        <v>7.427816977789297e-07</v>
+        <v>4.332893237043755e-07</v>
       </c>
       <c r="H107" t="n">
-        <v>9.463508854724248e-13</v>
+        <v>5.52038016525581e-13</v>
       </c>
       <c r="I107" t="n">
-        <v>3.098205260264977e-12</v>
+        <v>1.807286401821236e-12</v>
       </c>
       <c r="J107" t="n">
-        <v>4.949698418967478e-06</v>
+        <v>2.887324077731028e-06</v>
       </c>
       <c r="K107" t="n">
-        <v>0.00141168054919401</v>
+        <v>0.0008234803203631723</v>
       </c>
       <c r="L107" t="n">
-        <v>1.449029870336138e-09</v>
+        <v>8.452674243627472e-10</v>
       </c>
       <c r="M107" t="n">
-        <v>7.346833636801048e-12</v>
+        <v>4.285652954800609e-12</v>
       </c>
       <c r="N107" t="n">
-        <v>2.765695877288728e-07</v>
+        <v>1.61332259508509e-07</v>
       </c>
       <c r="O107" t="n">
-        <v>4.834824995405853e-05</v>
+        <v>2.820314580653413e-05</v>
       </c>
       <c r="P107" t="n">
-        <v>0.0006661395749099547</v>
+        <v>0.0003885814186974734</v>
       </c>
       <c r="Q107" t="n">
-        <v>4.104723351646727e-12</v>
+        <v>2.394421955127257e-12</v>
       </c>
     </row>
     <row r="108">
@@ -6357,52 +6357,52 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.002646152940897413</v>
+        <v>0.002646179711154814</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3953869999999998</v>
+        <v>0.3953909999999995</v>
       </c>
       <c r="D108" t="n">
-        <v>20.07875652315087</v>
+        <v>20.0789596533147</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0001878486920702659</v>
+        <v>0.0001878505924735878</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0006822457926218507</v>
+        <v>0.0006822526946777361</v>
       </c>
       <c r="G108" t="n">
-        <v>0.006118463065410779</v>
+        <v>0.006118524963885591</v>
       </c>
       <c r="H108" t="n">
-        <v>7.795309115714277e-09</v>
+        <v>7.795387978288063e-09</v>
       </c>
       <c r="I108" t="n">
-        <v>2.552062673417473e-08</v>
+        <v>2.552088491794641e-08</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04077180018292276</v>
+        <v>0.04077221265779098</v>
       </c>
       <c r="K108" t="n">
-        <v>11.62833619383691</v>
+        <v>11.62845383388267</v>
       </c>
       <c r="L108" t="n">
-        <v>1.193599111130405e-05</v>
+        <v>1.193611186379324e-05</v>
       </c>
       <c r="M108" t="n">
-        <v>6.051755231570526e-08</v>
+        <v>6.051816455184163e-08</v>
       </c>
       <c r="N108" t="n">
-        <v>0.002278167074653244</v>
+        <v>0.002278190122118887</v>
       </c>
       <c r="O108" t="n">
-        <v>0.3982556146788609</v>
+        <v>0.3982596436996902</v>
       </c>
       <c r="P108" t="n">
-        <v>5.487144335519209</v>
+        <v>5.487199847150448</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.381154691328215e-08</v>
+        <v>3.381188897356143e-08</v>
       </c>
     </row>
     <row r="109">
@@ -6412,52 +6412,52 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3.212430888296173e-07</v>
+        <v>1.873918018172767e-07</v>
       </c>
       <c r="C109" t="n">
-        <v>4.800000000000001e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>0.002437561966152763</v>
+        <v>0.001421911146922445</v>
       </c>
       <c r="E109" t="n">
-        <v>2.280483986416542e-08</v>
+        <v>1.330282325409649e-08</v>
       </c>
       <c r="F109" t="n">
-        <v>8.282467062864703e-08</v>
+        <v>4.831439120004408e-08</v>
       </c>
       <c r="G109" t="n">
-        <v>7.427816977789297e-07</v>
+        <v>4.332893237043755e-07</v>
       </c>
       <c r="H109" t="n">
-        <v>9.463508854724248e-13</v>
+        <v>5.52038016525581e-13</v>
       </c>
       <c r="I109" t="n">
-        <v>3.098205260264977e-12</v>
+        <v>1.807286401821236e-12</v>
       </c>
       <c r="J109" t="n">
-        <v>4.949698418967478e-06</v>
+        <v>2.887324077731028e-06</v>
       </c>
       <c r="K109" t="n">
-        <v>0.00141168054919401</v>
+        <v>0.0008234803203631723</v>
       </c>
       <c r="L109" t="n">
-        <v>1.449029870336138e-09</v>
+        <v>8.452674243627472e-10</v>
       </c>
       <c r="M109" t="n">
-        <v>7.346833636801048e-12</v>
+        <v>4.285652954800609e-12</v>
       </c>
       <c r="N109" t="n">
-        <v>2.765695877288728e-07</v>
+        <v>1.61332259508509e-07</v>
       </c>
       <c r="O109" t="n">
-        <v>4.834824995405853e-05</v>
+        <v>2.820314580653413e-05</v>
       </c>
       <c r="P109" t="n">
-        <v>0.0006661395749099547</v>
+        <v>0.0003885814186974734</v>
       </c>
       <c r="Q109" t="n">
-        <v>4.104723351646727e-12</v>
+        <v>2.394421955127257e-12</v>
       </c>
     </row>
     <row r="110">
@@ -6467,52 +6467,52 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.188468542651768e-06</v>
+        <v>1.291664919669086e-06</v>
       </c>
       <c r="C110" t="n">
-        <v>0.000327</v>
+        <v>0.000193</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0166058908944157</v>
+        <v>0.009801030405572566</v>
       </c>
       <c r="E110" t="n">
-        <v>1.553579715746269e-07</v>
+        <v>9.169446028716509e-08</v>
       </c>
       <c r="F110" t="n">
-        <v>5.642430686576578e-07</v>
+        <v>3.330241964860182e-07</v>
       </c>
       <c r="G110" t="n">
-        <v>5.060200316118957e-06</v>
+        <v>2.986601409819446e-06</v>
       </c>
       <c r="H110" t="n">
-        <v>6.447015407280893e-12</v>
+        <v>3.80511918533704e-12</v>
       </c>
       <c r="I110" t="n">
-        <v>2.110652333555515e-11</v>
+        <v>1.245736698398209e-11</v>
       </c>
       <c r="J110" t="n">
-        <v>3.371982047921593e-05</v>
+        <v>1.990191239293173e-05</v>
       </c>
       <c r="K110" t="n">
-        <v>0.009617073741384192</v>
+        <v>0.005676132208217582</v>
       </c>
       <c r="L110" t="n">
-        <v>9.871515991664941e-09</v>
+        <v>5.826307603643223e-09</v>
       </c>
       <c r="M110" t="n">
-        <v>5.005030415070712e-11</v>
+        <v>2.95403935813042e-11</v>
       </c>
       <c r="N110" t="n">
-        <v>1.884130316402945e-06</v>
+        <v>1.112040217326509e-06</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0003293724528120237</v>
+        <v>0.0001944002550236103</v>
       </c>
       <c r="P110" t="n">
-        <v>0.004538075854074065</v>
+        <v>0.002678436207450442</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.796342783309332e-11</v>
+        <v>1.650440847641288e-11</v>
       </c>
     </row>
     <row r="111">
@@ -6522,52 +6522,52 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1.878109564532995</v>
+        <v>1.877951894409458</v>
       </c>
       <c r="C111" t="n">
-        <v>280.626299</v>
+        <v>280.60274</v>
       </c>
       <c r="D111" t="n">
-        <v>14250.9165238461</v>
+        <v>14249.72013796359</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1333257877160084</v>
+        <v>0.1333145948155425</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4842245996752336</v>
+        <v>0.4841839482915806</v>
       </c>
       <c r="G111" t="n">
-        <v>4.342584975263282</v>
+        <v>4.34222040872124</v>
       </c>
       <c r="H111" t="n">
-        <v>5.532728053031237e-06</v>
+        <v>5.532263572187261e-06</v>
       </c>
       <c r="I111" t="n">
-        <v>1.811328907771858e-05</v>
+        <v>1.811176843984928e-05</v>
       </c>
       <c r="J111" t="n">
-        <v>28.93782392668738</v>
+        <v>28.93539455283212</v>
       </c>
       <c r="K111" t="n">
-        <v>8253.222664387551</v>
+        <v>8252.529793927999</v>
       </c>
       <c r="L111" t="n">
-        <v>0.008471581034435008</v>
+        <v>0.008470869832461772</v>
       </c>
       <c r="M111" t="n">
-        <v>4.295239026800391e-05</v>
+        <v>4.294878435021954e-05</v>
       </c>
       <c r="N111" t="n">
-        <v>1.616931246256445</v>
+        <v>1.616795502445668</v>
       </c>
       <c r="O111" t="n">
-        <v>282.6623009944659</v>
+        <v>282.6385710690353</v>
       </c>
       <c r="P111" t="n">
-        <v>3894.505906758621</v>
+        <v>3894.17895712851</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.399777755398951e-05</v>
+        <v>2.399576290445947e-05</v>
       </c>
     </row>
     <row r="112">
@@ -6577,52 +6577,52 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.617869401925748e-07</v>
+        <v>3.145505244790002e-07</v>
       </c>
       <c r="C112" t="n">
-        <v>6.9e-05</v>
+        <v>4.7e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003503995326344596</v>
+        <v>0.002386779425191246</v>
       </c>
       <c r="E112" t="n">
-        <v>3.278195730473778e-08</v>
+        <v>2.232973903366196e-08</v>
       </c>
       <c r="F112" t="n">
-        <v>1.190604640286801e-07</v>
+        <v>8.109915665721685e-08</v>
       </c>
       <c r="G112" t="n">
-        <v>1.067748690557211e-06</v>
+        <v>7.273070790752018e-07</v>
       </c>
       <c r="H112" t="n">
-        <v>1.36037939786661e-12</v>
+        <v>9.266352420250823e-13</v>
       </c>
       <c r="I112" t="n">
-        <v>4.453670061630903e-12</v>
+        <v>3.033659317342789e-12</v>
       </c>
       <c r="J112" t="n">
-        <v>7.115191477265747e-06</v>
+        <v>4.846579701905654e-06</v>
       </c>
       <c r="K112" t="n">
-        <v>0.002029290789466389</v>
+        <v>0.001382270537752468</v>
       </c>
       <c r="L112" t="n">
-        <v>2.082980438608198e-09</v>
+        <v>1.418841748037468e-09</v>
       </c>
       <c r="M112" t="n">
-        <v>1.05610733529015e-11</v>
+        <v>7.193774602701023e-12</v>
       </c>
       <c r="N112" t="n">
-        <v>3.975687823602544e-07</v>
+        <v>2.708077213178545e-07</v>
       </c>
       <c r="O112" t="n">
-        <v>6.950060930895912e-05</v>
+        <v>4.73409947466823e-05</v>
       </c>
       <c r="P112" t="n">
-        <v>0.0009575756389330596</v>
+        <v>0.0006522616670993304</v>
       </c>
       <c r="Q112" t="n">
-        <v>5.900539817992168e-12</v>
+        <v>4.019208281820752e-12</v>
       </c>
     </row>
     <row r="113">
@@ -6632,52 +6632,52 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2.377914173829749e-08</v>
+        <v>1.585276115886499e-08</v>
       </c>
       <c r="C113" t="n">
-        <v>3e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0001609315248206454</v>
+        <v>0.0001072876832137636</v>
       </c>
       <c r="E113" t="n">
-        <v>1.318224401137722e-09</v>
+        <v>8.788162674251478e-10</v>
       </c>
       <c r="F113" t="n">
-        <v>4.857760933153671e-09</v>
+        <v>3.238507288769113e-09</v>
       </c>
       <c r="G113" t="n">
-        <v>4.084291177070966e-08</v>
+        <v>2.722860784713977e-08</v>
       </c>
       <c r="H113" t="n">
-        <v>3.059535057224625e-14</v>
+        <v>2.03969003814975e-14</v>
       </c>
       <c r="I113" t="n">
-        <v>2.399695405632752e-13</v>
+        <v>1.599796937088501e-13</v>
       </c>
       <c r="J113" t="n">
-        <v>1.774560553999869e-07</v>
+        <v>1.183040369333246e-07</v>
       </c>
       <c r="K113" t="n">
-        <v>3.040128993850101e-05</v>
+        <v>2.026752662566734e-05</v>
       </c>
       <c r="L113" t="n">
-        <v>2.876745281179835e-10</v>
+        <v>1.917830187453223e-10</v>
       </c>
       <c r="M113" t="n">
-        <v>3.458665045335459e-13</v>
+        <v>2.305776696890306e-13</v>
       </c>
       <c r="N113" t="n">
-        <v>1.393468305600048e-08</v>
+        <v>9.289788704000316e-09</v>
       </c>
       <c r="O113" t="n">
-        <v>2.552479606248884e-06</v>
+        <v>1.701653070832589e-06</v>
       </c>
       <c r="P113" t="n">
-        <v>3.591848875495346e-05</v>
+        <v>2.394565916996897e-05</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.947216156236598e-13</v>
+        <v>1.298144104157731e-13</v>
       </c>
     </row>
     <row r="114">
@@ -6687,52 +6687,52 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.266425219681816</v>
+        <v>1.266463979929592</v>
       </c>
       <c r="C114" t="n">
-        <v>166.078386</v>
+        <v>166.083469</v>
       </c>
       <c r="D114" t="n">
-        <v>9549.166609485967</v>
+        <v>9549.458871561996</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07858253938375259</v>
+        <v>0.07858494448328003</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2918898739864568</v>
+        <v>0.2918988075765838</v>
       </c>
       <c r="G114" t="n">
-        <v>2.505998397444414</v>
+        <v>2.506075096105576</v>
       </c>
       <c r="H114" t="n">
-        <v>1.535107056760666e-06</v>
+        <v>1.535154040292704e-06</v>
       </c>
       <c r="I114" t="n">
-        <v>1.300147029301227e-05</v>
+        <v>1.300186821639707e-05</v>
       </c>
       <c r="J114" t="n">
-        <v>13.64824350671449</v>
+        <v>13.64866122525942</v>
       </c>
       <c r="K114" t="n">
-        <v>4666.727617064749</v>
+        <v>4666.870447068392</v>
       </c>
       <c r="L114" t="n">
-        <v>0.01334174408489665</v>
+        <v>0.0133421524227112</v>
       </c>
       <c r="M114" t="n">
-        <v>2.563159943157763e-05</v>
+        <v>2.563238391306886e-05</v>
       </c>
       <c r="N114" t="n">
-        <v>0.951227011184261</v>
+        <v>0.9512561244663339</v>
       </c>
       <c r="O114" t="n">
-        <v>135.2875752007529</v>
+        <v>135.2917158162858</v>
       </c>
       <c r="P114" t="n">
-        <v>2327.459455169421</v>
+        <v>2327.530689462429</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.79864409901582e-05</v>
+        <v>1.798699148370378e-05</v>
       </c>
     </row>
   </sheetData>
